--- a/utils/yahoofinance/VGIT_yahoofin_historical_data.xlsx
+++ b/utils/yahoofinance/VGIT_yahoofin_historical_data.xlsx
@@ -514,7 +514,7 @@
         <v>58.970001</v>
       </c>
       <c r="F3" t="n">
-        <v>57.836361</v>
+        <v>57.836369</v>
       </c>
       <c r="G3" t="n">
         <v>1741200</v>
@@ -539,7 +539,7 @@
         <v>58.880001</v>
       </c>
       <c r="F4" t="n">
-        <v>57.7481</v>
+        <v>57.748096</v>
       </c>
       <c r="G4" t="n">
         <v>1364100</v>
@@ -564,7 +564,7 @@
         <v>59.450001</v>
       </c>
       <c r="F5" t="n">
-        <v>58.307137</v>
+        <v>58.30714</v>
       </c>
       <c r="G5" t="n">
         <v>1450600</v>
@@ -589,7 +589,7 @@
         <v>59.560001</v>
       </c>
       <c r="F6" t="n">
-        <v>58.415028</v>
+        <v>58.415024</v>
       </c>
       <c r="G6" t="n">
         <v>1875900</v>
@@ -614,7 +614,7 @@
         <v>59.380001</v>
       </c>
       <c r="F7" t="n">
-        <v>58.238483</v>
+        <v>58.23848</v>
       </c>
       <c r="G7" t="n">
         <v>1168400</v>
@@ -664,7 +664,7 @@
         <v>60</v>
       </c>
       <c r="F9" t="n">
-        <v>58.846569</v>
+        <v>58.846565</v>
       </c>
       <c r="G9" t="n">
         <v>1661300</v>
@@ -714,7 +714,7 @@
         <v>59.73</v>
       </c>
       <c r="F11" t="n">
-        <v>58.581749</v>
+        <v>58.58176</v>
       </c>
       <c r="G11" t="n">
         <v>1981500</v>
@@ -789,7 +789,7 @@
         <v>59.900002</v>
       </c>
       <c r="F14" t="n">
-        <v>58.748486</v>
+        <v>58.748489</v>
       </c>
       <c r="G14" t="n">
         <v>1446500</v>
@@ -814,7 +814,7 @@
         <v>59.75</v>
       </c>
       <c r="F15" t="n">
-        <v>58.601368</v>
+        <v>58.601364</v>
       </c>
       <c r="G15" t="n">
         <v>1982800</v>
@@ -839,7 +839,7 @@
         <v>59.939999</v>
       </c>
       <c r="F16" t="n">
-        <v>58.787712</v>
+        <v>58.78772</v>
       </c>
       <c r="G16" t="n">
         <v>961400</v>
@@ -864,7 +864,7 @@
         <v>60</v>
       </c>
       <c r="F17" t="n">
-        <v>58.846569</v>
+        <v>58.846565</v>
       </c>
       <c r="G17" t="n">
         <v>1036000</v>
@@ -889,7 +889,7 @@
         <v>59.860001</v>
       </c>
       <c r="F18" t="n">
-        <v>58.709251</v>
+        <v>58.709255</v>
       </c>
       <c r="G18" t="n">
         <v>4187800</v>
@@ -939,7 +939,7 @@
         <v>59.639999</v>
       </c>
       <c r="F20" t="n">
-        <v>58.493488</v>
+        <v>58.493484</v>
       </c>
       <c r="G20" t="n">
         <v>1551700</v>
@@ -964,7 +964,7 @@
         <v>59.869999</v>
       </c>
       <c r="F21" t="n">
-        <v>58.719063</v>
+        <v>58.719059</v>
       </c>
       <c r="G21" t="n">
         <v>1507600</v>
@@ -989,7 +989,7 @@
         <v>60.07</v>
       </c>
       <c r="F22" t="n">
-        <v>59.035519</v>
+        <v>59.035522</v>
       </c>
       <c r="G22" t="n">
         <v>2358600</v>
@@ -1014,7 +1014,7 @@
         <v>60.080002</v>
       </c>
       <c r="F23" t="n">
-        <v>59.045349</v>
+        <v>59.045345</v>
       </c>
       <c r="G23" t="n">
         <v>4014500</v>
@@ -1039,7 +1039,7 @@
         <v>59.580002</v>
       </c>
       <c r="F24" t="n">
-        <v>58.553963</v>
+        <v>58.553959</v>
       </c>
       <c r="G24" t="n">
         <v>1786100</v>
@@ -1114,7 +1114,7 @@
         <v>59.23</v>
       </c>
       <c r="F27" t="n">
-        <v>58.209988</v>
+        <v>58.209984</v>
       </c>
       <c r="G27" t="n">
         <v>1377800</v>
@@ -1139,7 +1139,7 @@
         <v>59.040001</v>
       </c>
       <c r="F28" t="n">
-        <v>58.023254</v>
+        <v>58.023258</v>
       </c>
       <c r="G28" t="n">
         <v>2590000</v>
@@ -1164,7 +1164,7 @@
         <v>58.860001</v>
       </c>
       <c r="F29" t="n">
-        <v>57.846352</v>
+        <v>57.846355</v>
       </c>
       <c r="G29" t="n">
         <v>1898200</v>
@@ -1214,7 +1214,7 @@
         <v>58.669998</v>
       </c>
       <c r="F31" t="n">
-        <v>57.65963</v>
+        <v>57.659634</v>
       </c>
       <c r="G31" t="n">
         <v>6311300</v>
@@ -1264,7 +1264,7 @@
         <v>58.5</v>
       </c>
       <c r="F33" t="n">
-        <v>57.492558</v>
+        <v>57.492561</v>
       </c>
       <c r="G33" t="n">
         <v>6726800</v>
@@ -1289,7 +1289,7 @@
         <v>58.630001</v>
       </c>
       <c r="F34" t="n">
-        <v>57.620323</v>
+        <v>57.620319</v>
       </c>
       <c r="G34" t="n">
         <v>2906100</v>
@@ -1314,7 +1314,7 @@
         <v>58.200001</v>
       </c>
       <c r="F35" t="n">
-        <v>57.197723</v>
+        <v>57.197727</v>
       </c>
       <c r="G35" t="n">
         <v>3648300</v>
@@ -1339,7 +1339,7 @@
         <v>58.27</v>
       </c>
       <c r="F36" t="n">
-        <v>57.266514</v>
+        <v>57.266521</v>
       </c>
       <c r="G36" t="n">
         <v>3129100</v>
@@ -1389,7 +1389,7 @@
         <v>58.119999</v>
       </c>
       <c r="F38" t="n">
-        <v>57.119095</v>
+        <v>57.119099</v>
       </c>
       <c r="G38" t="n">
         <v>2237400</v>
@@ -1414,7 +1414,7 @@
         <v>58.25</v>
       </c>
       <c r="F39" t="n">
-        <v>57.246861</v>
+        <v>57.246864</v>
       </c>
       <c r="G39" t="n">
         <v>3802200</v>
@@ -1489,7 +1489,7 @@
         <v>57.720001</v>
       </c>
       <c r="F42" t="n">
-        <v>56.838127</v>
+        <v>56.838131</v>
       </c>
       <c r="G42" t="n">
         <v>1894100</v>
@@ -1514,7 +1514,7 @@
         <v>57.98</v>
       </c>
       <c r="F43" t="n">
-        <v>57.094158</v>
+        <v>57.094151</v>
       </c>
       <c r="G43" t="n">
         <v>2019300</v>
@@ -1539,7 +1539,7 @@
         <v>57.91</v>
       </c>
       <c r="F44" t="n">
-        <v>57.025227</v>
+        <v>57.025223</v>
       </c>
       <c r="G44" t="n">
         <v>1766200</v>
@@ -1589,7 +1589,7 @@
         <v>57.779999</v>
       </c>
       <c r="F46" t="n">
-        <v>56.897205</v>
+        <v>56.897209</v>
       </c>
       <c r="G46" t="n">
         <v>2439500</v>
@@ -1614,7 +1614,7 @@
         <v>58.139999</v>
       </c>
       <c r="F47" t="n">
-        <v>57.251713</v>
+        <v>57.251709</v>
       </c>
       <c r="G47" t="n">
         <v>1569400</v>
@@ -1639,7 +1639,7 @@
         <v>58.889999</v>
       </c>
       <c r="F48" t="n">
-        <v>57.99025</v>
+        <v>57.990253</v>
       </c>
       <c r="G48" t="n">
         <v>2527000</v>
@@ -1689,7 +1689,7 @@
         <v>59.189999</v>
       </c>
       <c r="F50" t="n">
-        <v>58.285664</v>
+        <v>58.285667</v>
       </c>
       <c r="G50" t="n">
         <v>6438300</v>
@@ -1714,7 +1714,7 @@
         <v>59.91</v>
       </c>
       <c r="F51" t="n">
-        <v>58.994667</v>
+        <v>58.994663</v>
       </c>
       <c r="G51" t="n">
         <v>7294300</v>
@@ -1789,7 +1789,7 @@
         <v>59.830002</v>
       </c>
       <c r="F54" t="n">
-        <v>58.915886</v>
+        <v>58.91589</v>
       </c>
       <c r="G54" t="n">
         <v>2867200</v>
@@ -1839,7 +1839,7 @@
         <v>60.029999</v>
       </c>
       <c r="F56" t="n">
-        <v>59.112835</v>
+        <v>59.112831</v>
       </c>
       <c r="G56" t="n">
         <v>5451700</v>
@@ -1864,7 +1864,7 @@
         <v>60.389999</v>
       </c>
       <c r="F57" t="n">
-        <v>59.467335</v>
+        <v>59.467331</v>
       </c>
       <c r="G57" t="n">
         <v>3073900</v>
@@ -1889,7 +1889,7 @@
         <v>60.369999</v>
       </c>
       <c r="F58" t="n">
-        <v>59.447636</v>
+        <v>59.447632</v>
       </c>
       <c r="G58" t="n">
         <v>3706100</v>
@@ -1939,7 +1939,7 @@
         <v>59.720001</v>
       </c>
       <c r="F60" t="n">
-        <v>58.807568</v>
+        <v>58.807571</v>
       </c>
       <c r="G60" t="n">
         <v>1653500</v>
@@ -1964,7 +1964,7 @@
         <v>59.639999</v>
       </c>
       <c r="F61" t="n">
-        <v>58.728794</v>
+        <v>58.72879</v>
       </c>
       <c r="G61" t="n">
         <v>2577100</v>
@@ -2014,7 +2014,7 @@
         <v>59.959999</v>
       </c>
       <c r="F63" t="n">
-        <v>59.043903</v>
+        <v>59.0439</v>
       </c>
       <c r="G63" t="n">
         <v>1964300</v>
@@ -2039,7 +2039,7 @@
         <v>60.049999</v>
       </c>
       <c r="F64" t="n">
-        <v>59.256062</v>
+        <v>59.256058</v>
       </c>
       <c r="G64" t="n">
         <v>1904500</v>
@@ -2114,7 +2114,7 @@
         <v>60.529999</v>
       </c>
       <c r="F67" t="n">
-        <v>59.729713</v>
+        <v>59.729717</v>
       </c>
       <c r="G67" t="n">
         <v>1474100</v>
@@ -2139,7 +2139,7 @@
         <v>60.080002</v>
       </c>
       <c r="F68" t="n">
-        <v>59.285667</v>
+        <v>59.28566</v>
       </c>
       <c r="G68" t="n">
         <v>2089000</v>
@@ -2164,7 +2164,7 @@
         <v>60.049999</v>
       </c>
       <c r="F69" t="n">
-        <v>59.256062</v>
+        <v>59.256058</v>
       </c>
       <c r="G69" t="n">
         <v>1461300</v>
@@ -2189,7 +2189,7 @@
         <v>60.23</v>
       </c>
       <c r="F70" t="n">
-        <v>59.433674</v>
+        <v>59.433678</v>
       </c>
       <c r="G70" t="n">
         <v>5763400</v>
@@ -2214,7 +2214,7 @@
         <v>60.130001</v>
       </c>
       <c r="F71" t="n">
-        <v>59.335011</v>
+        <v>59.335007</v>
       </c>
       <c r="G71" t="n">
         <v>1616400</v>
@@ -2339,7 +2339,7 @@
         <v>59.82</v>
       </c>
       <c r="F76" t="n">
-        <v>59.029102</v>
+        <v>59.029099</v>
       </c>
       <c r="G76" t="n">
         <v>1291600</v>
@@ -2389,7 +2389,7 @@
         <v>59.939999</v>
       </c>
       <c r="F78" t="n">
-        <v>59.147511</v>
+        <v>59.147514</v>
       </c>
       <c r="G78" t="n">
         <v>1001700</v>
@@ -2414,7 +2414,7 @@
         <v>60.439999</v>
       </c>
       <c r="F79" t="n">
-        <v>59.6409</v>
+        <v>59.640896</v>
       </c>
       <c r="G79" t="n">
         <v>1242700</v>
@@ -2464,7 +2464,7 @@
         <v>59.939999</v>
       </c>
       <c r="F81" t="n">
-        <v>59.147511</v>
+        <v>59.147514</v>
       </c>
       <c r="G81" t="n">
         <v>2827300</v>
@@ -2489,7 +2489,7 @@
         <v>60.27</v>
       </c>
       <c r="F82" t="n">
-        <v>59.473156</v>
+        <v>59.473152</v>
       </c>
       <c r="G82" t="n">
         <v>2204000</v>
@@ -2539,7 +2539,7 @@
         <v>60.25</v>
       </c>
       <c r="F84" t="n">
-        <v>59.574009</v>
+        <v>59.574013</v>
       </c>
       <c r="G84" t="n">
         <v>1737600</v>
@@ -2564,7 +2564,7 @@
         <v>60.59</v>
       </c>
       <c r="F85" t="n">
-        <v>59.910194</v>
+        <v>59.910198</v>
       </c>
       <c r="G85" t="n">
         <v>1389700</v>
@@ -2589,7 +2589,7 @@
         <v>60.650002</v>
       </c>
       <c r="F86" t="n">
-        <v>59.969517</v>
+        <v>59.969521</v>
       </c>
       <c r="G86" t="n">
         <v>2793100</v>
@@ -2739,7 +2739,7 @@
         <v>60.27</v>
       </c>
       <c r="F92" t="n">
-        <v>59.593788</v>
+        <v>59.593784</v>
       </c>
       <c r="G92" t="n">
         <v>1975300</v>
@@ -2764,7 +2764,7 @@
         <v>60.220001</v>
       </c>
       <c r="F93" t="n">
-        <v>59.544342</v>
+        <v>59.544346</v>
       </c>
       <c r="G93" t="n">
         <v>2351500</v>
@@ -2814,7 +2814,7 @@
         <v>59.889999</v>
       </c>
       <c r="F95" t="n">
-        <v>59.218044</v>
+        <v>59.218048</v>
       </c>
       <c r="G95" t="n">
         <v>1645600</v>
@@ -2839,7 +2839,7 @@
         <v>59.610001</v>
       </c>
       <c r="F96" t="n">
-        <v>58.941193</v>
+        <v>58.941189</v>
       </c>
       <c r="G96" t="n">
         <v>2963000</v>
@@ -2889,7 +2889,7 @@
         <v>59.380001</v>
       </c>
       <c r="F98" t="n">
-        <v>58.713772</v>
+        <v>58.713768</v>
       </c>
       <c r="G98" t="n">
         <v>3127700</v>
@@ -2939,7 +2939,7 @@
         <v>59.32</v>
       </c>
       <c r="F100" t="n">
-        <v>58.654442</v>
+        <v>58.654438</v>
       </c>
       <c r="G100" t="n">
         <v>1526500</v>
@@ -3289,7 +3289,7 @@
         <v>58.740002</v>
       </c>
       <c r="F114" t="n">
-        <v>58.20713</v>
+        <v>58.207127</v>
       </c>
       <c r="G114" t="n">
         <v>5187500</v>
@@ -3314,7 +3314,7 @@
         <v>59.099998</v>
       </c>
       <c r="F115" t="n">
-        <v>58.563858</v>
+        <v>58.563854</v>
       </c>
       <c r="G115" t="n">
         <v>2215100</v>
@@ -3389,7 +3389,7 @@
         <v>59.009998</v>
       </c>
       <c r="F118" t="n">
-        <v>58.474674</v>
+        <v>58.474678</v>
       </c>
       <c r="G118" t="n">
         <v>2199300</v>
@@ -3414,7 +3414,7 @@
         <v>58.799999</v>
       </c>
       <c r="F119" t="n">
-        <v>58.266575</v>
+        <v>58.266579</v>
       </c>
       <c r="G119" t="n">
         <v>843600</v>
@@ -3489,7 +3489,7 @@
         <v>58.860001</v>
       </c>
       <c r="F122" t="n">
-        <v>58.326035</v>
+        <v>58.326038</v>
       </c>
       <c r="G122" t="n">
         <v>1470500</v>
@@ -3814,7 +3814,7 @@
         <v>58.860001</v>
       </c>
       <c r="F135" t="n">
-        <v>58.453587</v>
+        <v>58.45359</v>
       </c>
       <c r="G135" t="n">
         <v>893800</v>
@@ -3839,7 +3839,7 @@
         <v>58.889999</v>
       </c>
       <c r="F136" t="n">
-        <v>58.483376</v>
+        <v>58.483379</v>
       </c>
       <c r="G136" t="n">
         <v>1395400</v>
@@ -3889,7 +3889,7 @@
         <v>58.689999</v>
       </c>
       <c r="F138" t="n">
-        <v>58.28476</v>
+        <v>58.284756</v>
       </c>
       <c r="G138" t="n">
         <v>20730600</v>
@@ -4014,7 +4014,7 @@
         <v>58.259998</v>
       </c>
       <c r="F143" t="n">
-        <v>57.857727</v>
+        <v>57.857723</v>
       </c>
       <c r="G143" t="n">
         <v>1907000</v>

--- a/utils/yahoofinance/VGIT_yahoofin_historical_data.xlsx
+++ b/utils/yahoofinance/VGIT_yahoofin_historical_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G208"/>
+  <dimension ref="A1:G209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
         <v>58.709999</v>
       </c>
       <c r="F2" t="n">
-        <v>57.581364</v>
+        <v>57.581356</v>
       </c>
       <c r="G2" t="n">
         <v>1862300</v>
@@ -514,7 +514,7 @@
         <v>58.970001</v>
       </c>
       <c r="F3" t="n">
-        <v>57.836369</v>
+        <v>57.836365</v>
       </c>
       <c r="G3" t="n">
         <v>1741200</v>
@@ -589,7 +589,7 @@
         <v>59.560001</v>
       </c>
       <c r="F6" t="n">
-        <v>58.415024</v>
+        <v>58.41502</v>
       </c>
       <c r="G6" t="n">
         <v>1875900</v>
@@ -614,7 +614,7 @@
         <v>59.380001</v>
       </c>
       <c r="F7" t="n">
-        <v>58.23848</v>
+        <v>58.238487</v>
       </c>
       <c r="G7" t="n">
         <v>1168400</v>
@@ -664,7 +664,7 @@
         <v>60</v>
       </c>
       <c r="F9" t="n">
-        <v>58.846565</v>
+        <v>58.846561</v>
       </c>
       <c r="G9" t="n">
         <v>1661300</v>
@@ -689,7 +689,7 @@
         <v>59.77</v>
       </c>
       <c r="F10" t="n">
-        <v>58.620987</v>
+        <v>58.620991</v>
       </c>
       <c r="G10" t="n">
         <v>1017900</v>
@@ -714,7 +714,7 @@
         <v>59.73</v>
       </c>
       <c r="F11" t="n">
-        <v>58.58176</v>
+        <v>58.581753</v>
       </c>
       <c r="G11" t="n">
         <v>1981500</v>
@@ -739,7 +739,7 @@
         <v>60.259998</v>
       </c>
       <c r="F12" t="n">
-        <v>59.101559</v>
+        <v>59.101566</v>
       </c>
       <c r="G12" t="n">
         <v>1705600</v>
@@ -764,7 +764,7 @@
         <v>60.150002</v>
       </c>
       <c r="F13" t="n">
-        <v>58.993679</v>
+        <v>58.993683</v>
       </c>
       <c r="G13" t="n">
         <v>1855300</v>
@@ -814,7 +814,7 @@
         <v>59.75</v>
       </c>
       <c r="F15" t="n">
-        <v>58.601364</v>
+        <v>58.601376</v>
       </c>
       <c r="G15" t="n">
         <v>1982800</v>
@@ -839,7 +839,7 @@
         <v>59.939999</v>
       </c>
       <c r="F16" t="n">
-        <v>58.78772</v>
+        <v>58.787712</v>
       </c>
       <c r="G16" t="n">
         <v>961400</v>
@@ -864,7 +864,7 @@
         <v>60</v>
       </c>
       <c r="F17" t="n">
-        <v>58.846565</v>
+        <v>58.846561</v>
       </c>
       <c r="G17" t="n">
         <v>1036000</v>
@@ -889,7 +889,7 @@
         <v>59.860001</v>
       </c>
       <c r="F18" t="n">
-        <v>58.709255</v>
+        <v>58.709251</v>
       </c>
       <c r="G18" t="n">
         <v>4187800</v>
@@ -914,7 +914,7 @@
         <v>59.77</v>
       </c>
       <c r="F19" t="n">
-        <v>58.620987</v>
+        <v>58.620991</v>
       </c>
       <c r="G19" t="n">
         <v>1254300</v>
@@ -964,7 +964,7 @@
         <v>59.869999</v>
       </c>
       <c r="F21" t="n">
-        <v>58.719059</v>
+        <v>58.719063</v>
       </c>
       <c r="G21" t="n">
         <v>1507600</v>
@@ -1014,7 +1014,7 @@
         <v>60.080002</v>
       </c>
       <c r="F23" t="n">
-        <v>59.045345</v>
+        <v>59.045353</v>
       </c>
       <c r="G23" t="n">
         <v>4014500</v>
@@ -1039,7 +1039,7 @@
         <v>59.580002</v>
       </c>
       <c r="F24" t="n">
-        <v>58.553959</v>
+        <v>58.553963</v>
       </c>
       <c r="G24" t="n">
         <v>1786100</v>
@@ -1064,7 +1064,7 @@
         <v>59.150002</v>
       </c>
       <c r="F25" t="n">
-        <v>58.131363</v>
+        <v>58.131371</v>
       </c>
       <c r="G25" t="n">
         <v>1537500</v>
@@ -1089,7 +1089,7 @@
         <v>59.09</v>
       </c>
       <c r="F26" t="n">
-        <v>58.072399</v>
+        <v>58.072392</v>
       </c>
       <c r="G26" t="n">
         <v>1974200</v>
@@ -1114,7 +1114,7 @@
         <v>59.23</v>
       </c>
       <c r="F27" t="n">
-        <v>58.209984</v>
+        <v>58.209988</v>
       </c>
       <c r="G27" t="n">
         <v>1377800</v>
@@ -1139,7 +1139,7 @@
         <v>59.040001</v>
       </c>
       <c r="F28" t="n">
-        <v>58.023258</v>
+        <v>58.023254</v>
       </c>
       <c r="G28" t="n">
         <v>2590000</v>
@@ -1164,7 +1164,7 @@
         <v>58.860001</v>
       </c>
       <c r="F29" t="n">
-        <v>57.846355</v>
+        <v>57.846359</v>
       </c>
       <c r="G29" t="n">
         <v>1898200</v>
@@ -1189,7 +1189,7 @@
         <v>58.93</v>
       </c>
       <c r="F30" t="n">
-        <v>57.915154</v>
+        <v>57.91515</v>
       </c>
       <c r="G30" t="n">
         <v>2631100</v>
@@ -1214,7 +1214,7 @@
         <v>58.669998</v>
       </c>
       <c r="F31" t="n">
-        <v>57.659634</v>
+        <v>57.659622</v>
       </c>
       <c r="G31" t="n">
         <v>6311300</v>
@@ -1239,7 +1239,7 @@
         <v>58.59</v>
       </c>
       <c r="F32" t="n">
-        <v>57.581009</v>
+        <v>57.581005</v>
       </c>
       <c r="G32" t="n">
         <v>4077900</v>
@@ -1264,7 +1264,7 @@
         <v>58.5</v>
       </c>
       <c r="F33" t="n">
-        <v>57.492561</v>
+        <v>57.492558</v>
       </c>
       <c r="G33" t="n">
         <v>6726800</v>
@@ -1289,7 +1289,7 @@
         <v>58.630001</v>
       </c>
       <c r="F34" t="n">
-        <v>57.620319</v>
+        <v>57.620323</v>
       </c>
       <c r="G34" t="n">
         <v>2906100</v>
@@ -1314,7 +1314,7 @@
         <v>58.200001</v>
       </c>
       <c r="F35" t="n">
-        <v>57.197727</v>
+        <v>57.197723</v>
       </c>
       <c r="G35" t="n">
         <v>3648300</v>
@@ -1339,7 +1339,7 @@
         <v>58.27</v>
       </c>
       <c r="F36" t="n">
-        <v>57.266521</v>
+        <v>57.266518</v>
       </c>
       <c r="G36" t="n">
         <v>3129100</v>
@@ -1414,7 +1414,7 @@
         <v>58.25</v>
       </c>
       <c r="F39" t="n">
-        <v>57.246864</v>
+        <v>57.246861</v>
       </c>
       <c r="G39" t="n">
         <v>3802200</v>
@@ -1439,7 +1439,7 @@
         <v>58.290001</v>
       </c>
       <c r="F40" t="n">
-        <v>57.286175</v>
+        <v>57.286179</v>
       </c>
       <c r="G40" t="n">
         <v>1913400</v>
@@ -1489,7 +1489,7 @@
         <v>57.720001</v>
       </c>
       <c r="F42" t="n">
-        <v>56.838131</v>
+        <v>56.83812</v>
       </c>
       <c r="G42" t="n">
         <v>1894100</v>
@@ -1514,7 +1514,7 @@
         <v>57.98</v>
       </c>
       <c r="F43" t="n">
-        <v>57.094151</v>
+        <v>57.094154</v>
       </c>
       <c r="G43" t="n">
         <v>2019300</v>
@@ -1639,7 +1639,7 @@
         <v>58.889999</v>
       </c>
       <c r="F48" t="n">
-        <v>57.990253</v>
+        <v>57.990246</v>
       </c>
       <c r="G48" t="n">
         <v>2527000</v>
@@ -1689,7 +1689,7 @@
         <v>59.189999</v>
       </c>
       <c r="F50" t="n">
-        <v>58.285667</v>
+        <v>58.285664</v>
       </c>
       <c r="G50" t="n">
         <v>6438300</v>
@@ -1714,7 +1714,7 @@
         <v>59.91</v>
       </c>
       <c r="F51" t="n">
-        <v>58.994663</v>
+        <v>58.994671</v>
       </c>
       <c r="G51" t="n">
         <v>7294300</v>
@@ -1814,7 +1814,7 @@
         <v>59.41</v>
       </c>
       <c r="F55" t="n">
-        <v>58.502304</v>
+        <v>58.502308</v>
       </c>
       <c r="G55" t="n">
         <v>2556600</v>
@@ -1839,7 +1839,7 @@
         <v>60.029999</v>
       </c>
       <c r="F56" t="n">
-        <v>59.112831</v>
+        <v>59.112827</v>
       </c>
       <c r="G56" t="n">
         <v>5451700</v>
@@ -1864,7 +1864,7 @@
         <v>60.389999</v>
       </c>
       <c r="F57" t="n">
-        <v>59.467331</v>
+        <v>59.467327</v>
       </c>
       <c r="G57" t="n">
         <v>3073900</v>
@@ -1889,7 +1889,7 @@
         <v>60.369999</v>
       </c>
       <c r="F58" t="n">
-        <v>59.447632</v>
+        <v>59.447639</v>
       </c>
       <c r="G58" t="n">
         <v>3706100</v>
@@ -1939,7 +1939,7 @@
         <v>59.720001</v>
       </c>
       <c r="F60" t="n">
-        <v>58.807571</v>
+        <v>58.807575</v>
       </c>
       <c r="G60" t="n">
         <v>1653500</v>
@@ -1964,7 +1964,7 @@
         <v>59.639999</v>
       </c>
       <c r="F61" t="n">
-        <v>58.72879</v>
+        <v>58.728798</v>
       </c>
       <c r="G61" t="n">
         <v>2577100</v>
@@ -2014,7 +2014,7 @@
         <v>59.959999</v>
       </c>
       <c r="F63" t="n">
-        <v>59.0439</v>
+        <v>59.043896</v>
       </c>
       <c r="G63" t="n">
         <v>1964300</v>
@@ -2064,7 +2064,7 @@
         <v>60.369999</v>
       </c>
       <c r="F65" t="n">
-        <v>59.571827</v>
+        <v>59.571831</v>
       </c>
       <c r="G65" t="n">
         <v>1856600</v>
@@ -2089,7 +2089,7 @@
         <v>60.52</v>
       </c>
       <c r="F66" t="n">
-        <v>59.719849</v>
+        <v>59.719845</v>
       </c>
       <c r="G66" t="n">
         <v>1736500</v>
@@ -2139,7 +2139,7 @@
         <v>60.080002</v>
       </c>
       <c r="F68" t="n">
-        <v>59.28566</v>
+        <v>59.285664</v>
       </c>
       <c r="G68" t="n">
         <v>2089000</v>
@@ -2214,7 +2214,7 @@
         <v>60.130001</v>
       </c>
       <c r="F71" t="n">
-        <v>59.335007</v>
+        <v>59.335003</v>
       </c>
       <c r="G71" t="n">
         <v>1616400</v>
@@ -2239,7 +2239,7 @@
         <v>59.889999</v>
       </c>
       <c r="F72" t="n">
-        <v>59.098179</v>
+        <v>59.098171</v>
       </c>
       <c r="G72" t="n">
         <v>2046000</v>
@@ -2364,7 +2364,7 @@
         <v>59.73</v>
       </c>
       <c r="F77" t="n">
-        <v>58.940289</v>
+        <v>58.940285</v>
       </c>
       <c r="G77" t="n">
         <v>861400</v>
@@ -2389,7 +2389,7 @@
         <v>59.939999</v>
       </c>
       <c r="F78" t="n">
-        <v>59.147514</v>
+        <v>59.147518</v>
       </c>
       <c r="G78" t="n">
         <v>1001700</v>
@@ -2414,7 +2414,7 @@
         <v>60.439999</v>
       </c>
       <c r="F79" t="n">
-        <v>59.640896</v>
+        <v>59.640903</v>
       </c>
       <c r="G79" t="n">
         <v>1242700</v>
@@ -2439,7 +2439,7 @@
         <v>60.279999</v>
       </c>
       <c r="F80" t="n">
-        <v>59.483017</v>
+        <v>59.483013</v>
       </c>
       <c r="G80" t="n">
         <v>1169600</v>
@@ -2464,7 +2464,7 @@
         <v>59.939999</v>
       </c>
       <c r="F81" t="n">
-        <v>59.147514</v>
+        <v>59.147518</v>
       </c>
       <c r="G81" t="n">
         <v>2827300</v>
@@ -2489,7 +2489,7 @@
         <v>60.27</v>
       </c>
       <c r="F82" t="n">
-        <v>59.473152</v>
+        <v>59.473148</v>
       </c>
       <c r="G82" t="n">
         <v>2204000</v>
@@ -2539,7 +2539,7 @@
         <v>60.25</v>
       </c>
       <c r="F84" t="n">
-        <v>59.574013</v>
+        <v>59.574005</v>
       </c>
       <c r="G84" t="n">
         <v>1737600</v>
@@ -2564,7 +2564,7 @@
         <v>60.59</v>
       </c>
       <c r="F85" t="n">
-        <v>59.910198</v>
+        <v>59.910191</v>
       </c>
       <c r="G85" t="n">
         <v>1389700</v>
@@ -2664,7 +2664,7 @@
         <v>60.060001</v>
       </c>
       <c r="F89" t="n">
-        <v>59.386143</v>
+        <v>59.386147</v>
       </c>
       <c r="G89" t="n">
         <v>2129600</v>
@@ -2789,7 +2789,7 @@
         <v>60.080002</v>
       </c>
       <c r="F94" t="n">
-        <v>59.40591</v>
+        <v>59.405914</v>
       </c>
       <c r="G94" t="n">
         <v>2200300</v>
@@ -2814,7 +2814,7 @@
         <v>59.889999</v>
       </c>
       <c r="F95" t="n">
-        <v>59.218048</v>
+        <v>59.218044</v>
       </c>
       <c r="G95" t="n">
         <v>1645600</v>
@@ -2839,7 +2839,7 @@
         <v>59.610001</v>
       </c>
       <c r="F96" t="n">
-        <v>58.941189</v>
+        <v>58.941193</v>
       </c>
       <c r="G96" t="n">
         <v>2963000</v>
@@ -2864,7 +2864,7 @@
         <v>59.419998</v>
       </c>
       <c r="F97" t="n">
-        <v>58.753315</v>
+        <v>58.753319</v>
       </c>
       <c r="G97" t="n">
         <v>2283200</v>
@@ -2914,7 +2914,7 @@
         <v>59.439999</v>
       </c>
       <c r="F99" t="n">
-        <v>58.773094</v>
+        <v>58.773098</v>
       </c>
       <c r="G99" t="n">
         <v>1391900</v>
@@ -2964,7 +2964,7 @@
         <v>58.990002</v>
       </c>
       <c r="F101" t="n">
-        <v>58.328144</v>
+        <v>58.328152</v>
       </c>
       <c r="G101" t="n">
         <v>2161900</v>
@@ -2989,7 +2989,7 @@
         <v>58.98</v>
       </c>
       <c r="F102" t="n">
-        <v>58.31826</v>
+        <v>58.318253</v>
       </c>
       <c r="G102" t="n">
         <v>1375600</v>
@@ -3239,7 +3239,7 @@
         <v>59.060001</v>
       </c>
       <c r="F112" t="n">
-        <v>58.524223</v>
+        <v>58.52422</v>
       </c>
       <c r="G112" t="n">
         <v>1118100</v>
@@ -3264,7 +3264,7 @@
         <v>58.75</v>
       </c>
       <c r="F113" t="n">
-        <v>58.217037</v>
+        <v>58.217033</v>
       </c>
       <c r="G113" t="n">
         <v>2160700</v>
@@ -3314,7 +3314,7 @@
         <v>59.099998</v>
       </c>
       <c r="F115" t="n">
-        <v>58.563854</v>
+        <v>58.563858</v>
       </c>
       <c r="G115" t="n">
         <v>2215100</v>
@@ -3364,7 +3364,7 @@
         <v>58.98</v>
       </c>
       <c r="F117" t="n">
-        <v>58.44495</v>
+        <v>58.444946</v>
       </c>
       <c r="G117" t="n">
         <v>2541100</v>
@@ -3389,7 +3389,7 @@
         <v>59.009998</v>
       </c>
       <c r="F118" t="n">
-        <v>58.474678</v>
+        <v>58.474674</v>
       </c>
       <c r="G118" t="n">
         <v>2199300</v>
@@ -3414,7 +3414,7 @@
         <v>58.799999</v>
       </c>
       <c r="F119" t="n">
-        <v>58.266579</v>
+        <v>58.266582</v>
       </c>
       <c r="G119" t="n">
         <v>843600</v>
@@ -3439,7 +3439,7 @@
         <v>58.919998</v>
       </c>
       <c r="F120" t="n">
-        <v>58.38549</v>
+        <v>58.385494</v>
       </c>
       <c r="G120" t="n">
         <v>1205000</v>
@@ -3464,7 +3464,7 @@
         <v>59.040001</v>
       </c>
       <c r="F121" t="n">
-        <v>58.504406</v>
+        <v>58.504402</v>
       </c>
       <c r="G121" t="n">
         <v>1052700</v>
@@ -3489,7 +3489,7 @@
         <v>58.860001</v>
       </c>
       <c r="F122" t="n">
-        <v>58.326038</v>
+        <v>58.326035</v>
       </c>
       <c r="G122" t="n">
         <v>1470500</v>
@@ -3514,7 +3514,7 @@
         <v>59.040001</v>
       </c>
       <c r="F123" t="n">
-        <v>58.504406</v>
+        <v>58.504402</v>
       </c>
       <c r="G123" t="n">
         <v>1860800</v>
@@ -3539,7 +3539,7 @@
         <v>58.610001</v>
       </c>
       <c r="F124" t="n">
-        <v>58.078304</v>
+        <v>58.078308</v>
       </c>
       <c r="G124" t="n">
         <v>1871400</v>
@@ -3614,7 +3614,7 @@
         <v>58.189999</v>
       </c>
       <c r="F127" t="n">
-        <v>57.788212</v>
+        <v>57.788216</v>
       </c>
       <c r="G127" t="n">
         <v>1926800</v>
@@ -3639,7 +3639,7 @@
         <v>57.869999</v>
       </c>
       <c r="F128" t="n">
-        <v>57.470417</v>
+        <v>57.470421</v>
       </c>
       <c r="G128" t="n">
         <v>3567600</v>
@@ -3664,7 +3664,7 @@
         <v>57.869999</v>
       </c>
       <c r="F129" t="n">
-        <v>57.470417</v>
+        <v>57.470421</v>
       </c>
       <c r="G129" t="n">
         <v>1276800</v>
@@ -3814,7 +3814,7 @@
         <v>58.860001</v>
       </c>
       <c r="F135" t="n">
-        <v>58.45359</v>
+        <v>58.453583</v>
       </c>
       <c r="G135" t="n">
         <v>893800</v>
@@ -3839,7 +3839,7 @@
         <v>58.889999</v>
       </c>
       <c r="F136" t="n">
-        <v>58.483379</v>
+        <v>58.483376</v>
       </c>
       <c r="G136" t="n">
         <v>1395400</v>
@@ -3889,7 +3889,7 @@
         <v>58.689999</v>
       </c>
       <c r="F138" t="n">
-        <v>58.284756</v>
+        <v>58.28476</v>
       </c>
       <c r="G138" t="n">
         <v>20730600</v>
@@ -3964,7 +3964,7 @@
         <v>58.509998</v>
       </c>
       <c r="F141" t="n">
-        <v>58.105999</v>
+        <v>58.106003</v>
       </c>
       <c r="G141" t="n">
         <v>3482100</v>
@@ -4014,7 +4014,7 @@
         <v>58.259998</v>
       </c>
       <c r="F143" t="n">
-        <v>57.857723</v>
+        <v>57.857727</v>
       </c>
       <c r="G143" t="n">
         <v>1907000</v>
@@ -4039,7 +4039,7 @@
         <v>58.43</v>
       </c>
       <c r="F144" t="n">
-        <v>58.026558</v>
+        <v>58.026554</v>
       </c>
       <c r="G144" t="n">
         <v>9031100</v>
@@ -4064,7 +4064,7 @@
         <v>58.48</v>
       </c>
       <c r="F145" t="n">
-        <v>58.076206</v>
+        <v>58.07621</v>
       </c>
       <c r="G145" t="n">
         <v>1621200</v>
@@ -4164,7 +4164,7 @@
         <v>58.34</v>
       </c>
       <c r="F149" t="n">
-        <v>58.06427</v>
+        <v>58.064266</v>
       </c>
       <c r="G149" t="n">
         <v>3147800</v>
@@ -4189,7 +4189,7 @@
         <v>58.27</v>
       </c>
       <c r="F150" t="n">
-        <v>57.994598</v>
+        <v>57.994602</v>
       </c>
       <c r="G150" t="n">
         <v>1124500</v>
@@ -4439,7 +4439,7 @@
         <v>57.529999</v>
       </c>
       <c r="F160" t="n">
-        <v>57.258099</v>
+        <v>57.258095</v>
       </c>
       <c r="G160" t="n">
         <v>5027300</v>
@@ -4464,7 +4464,7 @@
         <v>57.490002</v>
       </c>
       <c r="F161" t="n">
-        <v>57.218288</v>
+        <v>57.218285</v>
       </c>
       <c r="G161" t="n">
         <v>2433300</v>
@@ -4514,7 +4514,7 @@
         <v>57.77</v>
       </c>
       <c r="F163" t="n">
-        <v>57.496964</v>
+        <v>57.49696</v>
       </c>
       <c r="G163" t="n">
         <v>3180900</v>
@@ -4539,7 +4539,7 @@
         <v>57.700001</v>
       </c>
       <c r="F164" t="n">
-        <v>57.427292</v>
+        <v>57.427296</v>
       </c>
       <c r="G164" t="n">
         <v>1632400</v>
@@ -4639,7 +4639,7 @@
         <v>58.259998</v>
       </c>
       <c r="F168" t="n">
-        <v>57.984642</v>
+        <v>57.984646</v>
       </c>
       <c r="G168" t="n">
         <v>3150500</v>
@@ -5643,6 +5643,31 @@
       </c>
       <c r="G208" t="n">
         <v>3568100</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2023-10-30</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="C209" t="n">
+        <v>56.630001</v>
+      </c>
+      <c r="D209" t="n">
+        <v>56.4748</v>
+      </c>
+      <c r="E209" t="n">
+        <v>56.57</v>
+      </c>
+      <c r="F209" t="n">
+        <v>56.57</v>
+      </c>
+      <c r="G209" t="n">
+        <v>3591400</v>
       </c>
     </row>
   </sheetData>

--- a/utils/yahoofinance/VGIT_yahoofin_historical_data.xlsx
+++ b/utils/yahoofinance/VGIT_yahoofin_historical_data.xlsx
@@ -489,7 +489,7 @@
         <v>58.709999</v>
       </c>
       <c r="F2" t="n">
-        <v>57.581356</v>
+        <v>57.581364</v>
       </c>
       <c r="G2" t="n">
         <v>1862300</v>
@@ -514,7 +514,7 @@
         <v>58.970001</v>
       </c>
       <c r="F3" t="n">
-        <v>57.836365</v>
+        <v>57.836369</v>
       </c>
       <c r="G3" t="n">
         <v>1741200</v>
@@ -564,7 +564,7 @@
         <v>59.450001</v>
       </c>
       <c r="F5" t="n">
-        <v>58.30714</v>
+        <v>58.307144</v>
       </c>
       <c r="G5" t="n">
         <v>1450600</v>
@@ -589,7 +589,7 @@
         <v>59.560001</v>
       </c>
       <c r="F6" t="n">
-        <v>58.41502</v>
+        <v>58.415024</v>
       </c>
       <c r="G6" t="n">
         <v>1875900</v>
@@ -614,7 +614,7 @@
         <v>59.380001</v>
       </c>
       <c r="F7" t="n">
-        <v>58.238487</v>
+        <v>58.23848</v>
       </c>
       <c r="G7" t="n">
         <v>1168400</v>
@@ -714,7 +714,7 @@
         <v>59.73</v>
       </c>
       <c r="F11" t="n">
-        <v>58.581753</v>
+        <v>58.581757</v>
       </c>
       <c r="G11" t="n">
         <v>1981500</v>
@@ -764,7 +764,7 @@
         <v>60.150002</v>
       </c>
       <c r="F13" t="n">
-        <v>58.993683</v>
+        <v>58.993687</v>
       </c>
       <c r="G13" t="n">
         <v>1855300</v>
@@ -789,7 +789,7 @@
         <v>59.900002</v>
       </c>
       <c r="F14" t="n">
-        <v>58.748489</v>
+        <v>58.748493</v>
       </c>
       <c r="G14" t="n">
         <v>1446500</v>
@@ -814,7 +814,7 @@
         <v>59.75</v>
       </c>
       <c r="F15" t="n">
-        <v>58.601376</v>
+        <v>58.601372</v>
       </c>
       <c r="G15" t="n">
         <v>1982800</v>
@@ -839,7 +839,7 @@
         <v>59.939999</v>
       </c>
       <c r="F16" t="n">
-        <v>58.787712</v>
+        <v>58.78772</v>
       </c>
       <c r="G16" t="n">
         <v>961400</v>
@@ -889,7 +889,7 @@
         <v>59.860001</v>
       </c>
       <c r="F18" t="n">
-        <v>58.709251</v>
+        <v>58.709259</v>
       </c>
       <c r="G18" t="n">
         <v>4187800</v>
@@ -939,7 +939,7 @@
         <v>59.639999</v>
       </c>
       <c r="F20" t="n">
-        <v>58.493484</v>
+        <v>58.493492</v>
       </c>
       <c r="G20" t="n">
         <v>1551700</v>
@@ -989,7 +989,7 @@
         <v>60.07</v>
       </c>
       <c r="F22" t="n">
-        <v>59.035522</v>
+        <v>59.035515</v>
       </c>
       <c r="G22" t="n">
         <v>2358600</v>
@@ -1064,7 +1064,7 @@
         <v>59.150002</v>
       </c>
       <c r="F25" t="n">
-        <v>58.131371</v>
+        <v>58.131363</v>
       </c>
       <c r="G25" t="n">
         <v>1537500</v>
@@ -1114,7 +1114,7 @@
         <v>59.23</v>
       </c>
       <c r="F27" t="n">
-        <v>58.209988</v>
+        <v>58.209991</v>
       </c>
       <c r="G27" t="n">
         <v>1377800</v>
@@ -1139,7 +1139,7 @@
         <v>59.040001</v>
       </c>
       <c r="F28" t="n">
-        <v>58.023254</v>
+        <v>58.023262</v>
       </c>
       <c r="G28" t="n">
         <v>2590000</v>
@@ -1164,7 +1164,7 @@
         <v>58.860001</v>
       </c>
       <c r="F29" t="n">
-        <v>57.846359</v>
+        <v>57.846352</v>
       </c>
       <c r="G29" t="n">
         <v>1898200</v>
@@ -1239,7 +1239,7 @@
         <v>58.59</v>
       </c>
       <c r="F32" t="n">
-        <v>57.581005</v>
+        <v>57.581009</v>
       </c>
       <c r="G32" t="n">
         <v>4077900</v>
@@ -1389,7 +1389,7 @@
         <v>58.119999</v>
       </c>
       <c r="F38" t="n">
-        <v>57.119099</v>
+        <v>57.119102</v>
       </c>
       <c r="G38" t="n">
         <v>2237400</v>
@@ -1414,7 +1414,7 @@
         <v>58.25</v>
       </c>
       <c r="F39" t="n">
-        <v>57.246861</v>
+        <v>57.246864</v>
       </c>
       <c r="G39" t="n">
         <v>3802200</v>
@@ -1464,7 +1464,7 @@
         <v>57.860001</v>
       </c>
       <c r="F41" t="n">
-        <v>56.975986</v>
+        <v>56.97599</v>
       </c>
       <c r="G41" t="n">
         <v>2232800</v>
@@ -1489,7 +1489,7 @@
         <v>57.720001</v>
       </c>
       <c r="F42" t="n">
-        <v>56.83812</v>
+        <v>56.838123</v>
       </c>
       <c r="G42" t="n">
         <v>1894100</v>
@@ -1564,7 +1564,7 @@
         <v>57.830002</v>
       </c>
       <c r="F45" t="n">
-        <v>56.946445</v>
+        <v>56.946449</v>
       </c>
       <c r="G45" t="n">
         <v>2534900</v>
@@ -1639,7 +1639,7 @@
         <v>58.889999</v>
       </c>
       <c r="F48" t="n">
-        <v>57.990246</v>
+        <v>57.99025</v>
       </c>
       <c r="G48" t="n">
         <v>2527000</v>
@@ -1714,7 +1714,7 @@
         <v>59.91</v>
       </c>
       <c r="F51" t="n">
-        <v>58.994671</v>
+        <v>58.994663</v>
       </c>
       <c r="G51" t="n">
         <v>7294300</v>
@@ -1764,7 +1764,7 @@
         <v>60.040001</v>
       </c>
       <c r="F53" t="n">
-        <v>59.122681</v>
+        <v>59.122677</v>
       </c>
       <c r="G53" t="n">
         <v>2511100</v>
@@ -1814,7 +1814,7 @@
         <v>59.41</v>
       </c>
       <c r="F55" t="n">
-        <v>58.502308</v>
+        <v>58.502304</v>
       </c>
       <c r="G55" t="n">
         <v>2556600</v>
@@ -1839,7 +1839,7 @@
         <v>60.029999</v>
       </c>
       <c r="F56" t="n">
-        <v>59.112827</v>
+        <v>59.112831</v>
       </c>
       <c r="G56" t="n">
         <v>5451700</v>
@@ -1864,7 +1864,7 @@
         <v>60.389999</v>
       </c>
       <c r="F57" t="n">
-        <v>59.467327</v>
+        <v>59.467331</v>
       </c>
       <c r="G57" t="n">
         <v>3073900</v>
@@ -1889,7 +1889,7 @@
         <v>60.369999</v>
       </c>
       <c r="F58" t="n">
-        <v>59.447639</v>
+        <v>59.447636</v>
       </c>
       <c r="G58" t="n">
         <v>3706100</v>
@@ -1914,7 +1914,7 @@
         <v>59.810001</v>
       </c>
       <c r="F59" t="n">
-        <v>58.896194</v>
+        <v>58.896191</v>
       </c>
       <c r="G59" t="n">
         <v>1804900</v>
@@ -1939,7 +1939,7 @@
         <v>59.720001</v>
       </c>
       <c r="F60" t="n">
-        <v>58.807575</v>
+        <v>58.807568</v>
       </c>
       <c r="G60" t="n">
         <v>1653500</v>
@@ -2014,7 +2014,7 @@
         <v>59.959999</v>
       </c>
       <c r="F63" t="n">
-        <v>59.043896</v>
+        <v>59.043903</v>
       </c>
       <c r="G63" t="n">
         <v>1964300</v>
@@ -2039,7 +2039,7 @@
         <v>60.049999</v>
       </c>
       <c r="F64" t="n">
-        <v>59.256058</v>
+        <v>59.256065</v>
       </c>
       <c r="G64" t="n">
         <v>1904500</v>
@@ -2089,7 +2089,7 @@
         <v>60.52</v>
       </c>
       <c r="F66" t="n">
-        <v>59.719845</v>
+        <v>59.719849</v>
       </c>
       <c r="G66" t="n">
         <v>1736500</v>
@@ -2114,7 +2114,7 @@
         <v>60.529999</v>
       </c>
       <c r="F67" t="n">
-        <v>59.729717</v>
+        <v>59.729713</v>
       </c>
       <c r="G67" t="n">
         <v>1474100</v>
@@ -2139,7 +2139,7 @@
         <v>60.080002</v>
       </c>
       <c r="F68" t="n">
-        <v>59.285664</v>
+        <v>59.285671</v>
       </c>
       <c r="G68" t="n">
         <v>2089000</v>
@@ -2164,7 +2164,7 @@
         <v>60.049999</v>
       </c>
       <c r="F69" t="n">
-        <v>59.256058</v>
+        <v>59.256065</v>
       </c>
       <c r="G69" t="n">
         <v>1461300</v>
@@ -2239,7 +2239,7 @@
         <v>59.889999</v>
       </c>
       <c r="F72" t="n">
-        <v>59.098171</v>
+        <v>59.098175</v>
       </c>
       <c r="G72" t="n">
         <v>2046000</v>
@@ -2364,7 +2364,7 @@
         <v>59.73</v>
       </c>
       <c r="F77" t="n">
-        <v>58.940285</v>
+        <v>58.940289</v>
       </c>
       <c r="G77" t="n">
         <v>861400</v>
@@ -2389,7 +2389,7 @@
         <v>59.939999</v>
       </c>
       <c r="F78" t="n">
-        <v>59.147518</v>
+        <v>59.147511</v>
       </c>
       <c r="G78" t="n">
         <v>1001700</v>
@@ -2439,7 +2439,7 @@
         <v>60.279999</v>
       </c>
       <c r="F80" t="n">
-        <v>59.483013</v>
+        <v>59.483017</v>
       </c>
       <c r="G80" t="n">
         <v>1169600</v>
@@ -2464,7 +2464,7 @@
         <v>59.939999</v>
       </c>
       <c r="F81" t="n">
-        <v>59.147518</v>
+        <v>59.147511</v>
       </c>
       <c r="G81" t="n">
         <v>2827300</v>
@@ -2489,7 +2489,7 @@
         <v>60.27</v>
       </c>
       <c r="F82" t="n">
-        <v>59.473148</v>
+        <v>59.473152</v>
       </c>
       <c r="G82" t="n">
         <v>2204000</v>
@@ -2564,7 +2564,7 @@
         <v>60.59</v>
       </c>
       <c r="F85" t="n">
-        <v>59.910191</v>
+        <v>59.910194</v>
       </c>
       <c r="G85" t="n">
         <v>1389700</v>
@@ -2589,7 +2589,7 @@
         <v>60.650002</v>
       </c>
       <c r="F86" t="n">
-        <v>59.969521</v>
+        <v>59.969524</v>
       </c>
       <c r="G86" t="n">
         <v>2793100</v>
@@ -2614,7 +2614,7 @@
         <v>60.360001</v>
       </c>
       <c r="F87" t="n">
-        <v>59.682774</v>
+        <v>59.68277</v>
       </c>
       <c r="G87" t="n">
         <v>4097000</v>
@@ -2639,7 +2639,7 @@
         <v>60.110001</v>
       </c>
       <c r="F88" t="n">
-        <v>59.435574</v>
+        <v>59.435581</v>
       </c>
       <c r="G88" t="n">
         <v>1617200</v>
@@ -2664,7 +2664,7 @@
         <v>60.060001</v>
       </c>
       <c r="F89" t="n">
-        <v>59.386147</v>
+        <v>59.386139</v>
       </c>
       <c r="G89" t="n">
         <v>2129600</v>
@@ -2714,7 +2714,7 @@
         <v>60.540001</v>
       </c>
       <c r="F91" t="n">
-        <v>59.860752</v>
+        <v>59.860756</v>
       </c>
       <c r="G91" t="n">
         <v>1439700</v>
@@ -2789,7 +2789,7 @@
         <v>60.080002</v>
       </c>
       <c r="F94" t="n">
-        <v>59.405914</v>
+        <v>59.405922</v>
       </c>
       <c r="G94" t="n">
         <v>2200300</v>
@@ -2814,7 +2814,7 @@
         <v>59.889999</v>
       </c>
       <c r="F95" t="n">
-        <v>59.218044</v>
+        <v>59.218048</v>
       </c>
       <c r="G95" t="n">
         <v>1645600</v>
@@ -2914,7 +2914,7 @@
         <v>59.439999</v>
       </c>
       <c r="F99" t="n">
-        <v>58.773098</v>
+        <v>58.773094</v>
       </c>
       <c r="G99" t="n">
         <v>1391900</v>
@@ -2964,7 +2964,7 @@
         <v>58.990002</v>
       </c>
       <c r="F101" t="n">
-        <v>58.328152</v>
+        <v>58.328144</v>
       </c>
       <c r="G101" t="n">
         <v>2161900</v>
@@ -2989,7 +2989,7 @@
         <v>58.98</v>
       </c>
       <c r="F102" t="n">
-        <v>58.318253</v>
+        <v>58.31826</v>
       </c>
       <c r="G102" t="n">
         <v>1375600</v>
@@ -3064,7 +3064,7 @@
         <v>59.529999</v>
       </c>
       <c r="F105" t="n">
-        <v>58.989956</v>
+        <v>58.98996</v>
       </c>
       <c r="G105" t="n">
         <v>1343600</v>
@@ -3089,7 +3089,7 @@
         <v>59.139999</v>
       </c>
       <c r="F106" t="n">
-        <v>58.603497</v>
+        <v>58.603493</v>
       </c>
       <c r="G106" t="n">
         <v>1134700</v>
@@ -3139,7 +3139,7 @@
         <v>59.139999</v>
       </c>
       <c r="F108" t="n">
-        <v>58.603497</v>
+        <v>58.603493</v>
       </c>
       <c r="G108" t="n">
         <v>1440700</v>
@@ -3214,7 +3214,7 @@
         <v>58.959999</v>
       </c>
       <c r="F111" t="n">
-        <v>58.425129</v>
+        <v>58.425125</v>
       </c>
       <c r="G111" t="n">
         <v>944900</v>
@@ -3239,7 +3239,7 @@
         <v>59.060001</v>
       </c>
       <c r="F112" t="n">
-        <v>58.52422</v>
+        <v>58.524223</v>
       </c>
       <c r="G112" t="n">
         <v>1118100</v>
@@ -3289,7 +3289,7 @@
         <v>58.740002</v>
       </c>
       <c r="F114" t="n">
-        <v>58.207127</v>
+        <v>58.20713</v>
       </c>
       <c r="G114" t="n">
         <v>5187500</v>
@@ -3364,7 +3364,7 @@
         <v>58.98</v>
       </c>
       <c r="F117" t="n">
-        <v>58.444946</v>
+        <v>58.44495</v>
       </c>
       <c r="G117" t="n">
         <v>2541100</v>
@@ -3389,7 +3389,7 @@
         <v>59.009998</v>
       </c>
       <c r="F118" t="n">
-        <v>58.474674</v>
+        <v>58.474678</v>
       </c>
       <c r="G118" t="n">
         <v>2199300</v>
@@ -3439,7 +3439,7 @@
         <v>58.919998</v>
       </c>
       <c r="F120" t="n">
-        <v>58.385494</v>
+        <v>58.38549</v>
       </c>
       <c r="G120" t="n">
         <v>1205000</v>
@@ -3464,7 +3464,7 @@
         <v>59.040001</v>
       </c>
       <c r="F121" t="n">
-        <v>58.504402</v>
+        <v>58.504406</v>
       </c>
       <c r="G121" t="n">
         <v>1052700</v>
@@ -3514,7 +3514,7 @@
         <v>59.040001</v>
       </c>
       <c r="F123" t="n">
-        <v>58.504402</v>
+        <v>58.504406</v>
       </c>
       <c r="G123" t="n">
         <v>1860800</v>
@@ -3539,7 +3539,7 @@
         <v>58.610001</v>
       </c>
       <c r="F124" t="n">
-        <v>58.078308</v>
+        <v>58.078304</v>
       </c>
       <c r="G124" t="n">
         <v>1871400</v>
@@ -3564,7 +3564,7 @@
         <v>58.66</v>
       </c>
       <c r="F125" t="n">
-        <v>58.12785</v>
+        <v>58.127853</v>
       </c>
       <c r="G125" t="n">
         <v>1798400</v>
@@ -3614,7 +3614,7 @@
         <v>58.189999</v>
       </c>
       <c r="F127" t="n">
-        <v>57.788216</v>
+        <v>57.788212</v>
       </c>
       <c r="G127" t="n">
         <v>1926800</v>
@@ -3639,7 +3639,7 @@
         <v>57.869999</v>
       </c>
       <c r="F128" t="n">
-        <v>57.470421</v>
+        <v>57.470417</v>
       </c>
       <c r="G128" t="n">
         <v>3567600</v>
@@ -3664,7 +3664,7 @@
         <v>57.869999</v>
       </c>
       <c r="F129" t="n">
-        <v>57.470421</v>
+        <v>57.470417</v>
       </c>
       <c r="G129" t="n">
         <v>1276800</v>
@@ -3814,7 +3814,7 @@
         <v>58.860001</v>
       </c>
       <c r="F135" t="n">
-        <v>58.453583</v>
+        <v>58.45359</v>
       </c>
       <c r="G135" t="n">
         <v>893800</v>
@@ -3839,7 +3839,7 @@
         <v>58.889999</v>
       </c>
       <c r="F136" t="n">
-        <v>58.483376</v>
+        <v>58.483379</v>
       </c>
       <c r="G136" t="n">
         <v>1395400</v>
@@ -3889,7 +3889,7 @@
         <v>58.689999</v>
       </c>
       <c r="F138" t="n">
-        <v>58.28476</v>
+        <v>58.284756</v>
       </c>
       <c r="G138" t="n">
         <v>20730600</v>
@@ -3964,7 +3964,7 @@
         <v>58.509998</v>
       </c>
       <c r="F141" t="n">
-        <v>58.106003</v>
+        <v>58.105999</v>
       </c>
       <c r="G141" t="n">
         <v>3482100</v>
@@ -4014,7 +4014,7 @@
         <v>58.259998</v>
       </c>
       <c r="F143" t="n">
-        <v>57.857727</v>
+        <v>57.857723</v>
       </c>
       <c r="G143" t="n">
         <v>1907000</v>
@@ -4039,7 +4039,7 @@
         <v>58.43</v>
       </c>
       <c r="F144" t="n">
-        <v>58.026554</v>
+        <v>58.026558</v>
       </c>
       <c r="G144" t="n">
         <v>9031100</v>
@@ -4064,7 +4064,7 @@
         <v>58.48</v>
       </c>
       <c r="F145" t="n">
-        <v>58.07621</v>
+        <v>58.076206</v>
       </c>
       <c r="G145" t="n">
         <v>1621200</v>
@@ -4164,7 +4164,7 @@
         <v>58.34</v>
       </c>
       <c r="F149" t="n">
-        <v>58.064266</v>
+        <v>58.06427</v>
       </c>
       <c r="G149" t="n">
         <v>3147800</v>
@@ -4189,7 +4189,7 @@
         <v>58.27</v>
       </c>
       <c r="F150" t="n">
-        <v>57.994602</v>
+        <v>57.994598</v>
       </c>
       <c r="G150" t="n">
         <v>1124500</v>
@@ -4439,7 +4439,7 @@
         <v>57.529999</v>
       </c>
       <c r="F160" t="n">
-        <v>57.258095</v>
+        <v>57.258099</v>
       </c>
       <c r="G160" t="n">
         <v>5027300</v>
@@ -4464,7 +4464,7 @@
         <v>57.490002</v>
       </c>
       <c r="F161" t="n">
-        <v>57.218285</v>
+        <v>57.218288</v>
       </c>
       <c r="G161" t="n">
         <v>2433300</v>
@@ -4514,7 +4514,7 @@
         <v>57.77</v>
       </c>
       <c r="F163" t="n">
-        <v>57.49696</v>
+        <v>57.496964</v>
       </c>
       <c r="G163" t="n">
         <v>3180900</v>
@@ -4539,7 +4539,7 @@
         <v>57.700001</v>
       </c>
       <c r="F164" t="n">
-        <v>57.427296</v>
+        <v>57.427292</v>
       </c>
       <c r="G164" t="n">
         <v>1632400</v>
@@ -4639,7 +4639,7 @@
         <v>58.259998</v>
       </c>
       <c r="F168" t="n">
-        <v>57.984646</v>
+        <v>57.984642</v>
       </c>
       <c r="G168" t="n">
         <v>3150500</v>
@@ -5658,7 +5658,7 @@
         <v>56.630001</v>
       </c>
       <c r="D209" t="n">
-        <v>56.4748</v>
+        <v>56.470001</v>
       </c>
       <c r="E209" t="n">
         <v>56.57</v>

--- a/utils/yahoofinance/VGIT_yahoofin_historical_data.xlsx
+++ b/utils/yahoofinance/VGIT_yahoofin_historical_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G209"/>
+  <dimension ref="A1:G214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
         <v>58.709999</v>
       </c>
       <c r="F2" t="n">
-        <v>57.581364</v>
+        <v>57.429562</v>
       </c>
       <c r="G2" t="n">
         <v>1862300</v>
@@ -514,7 +514,7 @@
         <v>58.970001</v>
       </c>
       <c r="F3" t="n">
-        <v>57.836369</v>
+        <v>57.683895</v>
       </c>
       <c r="G3" t="n">
         <v>1741200</v>
@@ -539,7 +539,7 @@
         <v>58.880001</v>
       </c>
       <c r="F4" t="n">
-        <v>57.748096</v>
+        <v>57.595863</v>
       </c>
       <c r="G4" t="n">
         <v>1364100</v>
@@ -564,7 +564,7 @@
         <v>59.450001</v>
       </c>
       <c r="F5" t="n">
-        <v>58.307144</v>
+        <v>58.153427</v>
       </c>
       <c r="G5" t="n">
         <v>1450600</v>
@@ -589,7 +589,7 @@
         <v>59.560001</v>
       </c>
       <c r="F6" t="n">
-        <v>58.415024</v>
+        <v>58.261028</v>
       </c>
       <c r="G6" t="n">
         <v>1875900</v>
@@ -614,7 +614,7 @@
         <v>59.380001</v>
       </c>
       <c r="F7" t="n">
-        <v>58.23848</v>
+        <v>58.084953</v>
       </c>
       <c r="G7" t="n">
         <v>1168400</v>
@@ -639,7 +639,7 @@
         <v>59.610001</v>
       </c>
       <c r="F8" t="n">
-        <v>58.464066</v>
+        <v>58.309937</v>
       </c>
       <c r="G8" t="n">
         <v>1086400</v>
@@ -664,7 +664,7 @@
         <v>60</v>
       </c>
       <c r="F9" t="n">
-        <v>58.846561</v>
+        <v>58.691437</v>
       </c>
       <c r="G9" t="n">
         <v>1661300</v>
@@ -689,7 +689,7 @@
         <v>59.77</v>
       </c>
       <c r="F10" t="n">
-        <v>58.620991</v>
+        <v>58.466442</v>
       </c>
       <c r="G10" t="n">
         <v>1017900</v>
@@ -714,7 +714,7 @@
         <v>59.73</v>
       </c>
       <c r="F11" t="n">
-        <v>58.581757</v>
+        <v>58.427315</v>
       </c>
       <c r="G11" t="n">
         <v>1981500</v>
@@ -739,7 +739,7 @@
         <v>60.259998</v>
       </c>
       <c r="F12" t="n">
-        <v>59.101566</v>
+        <v>58.945759</v>
       </c>
       <c r="G12" t="n">
         <v>1705600</v>
@@ -764,7 +764,7 @@
         <v>60.150002</v>
       </c>
       <c r="F13" t="n">
-        <v>58.993687</v>
+        <v>58.838161</v>
       </c>
       <c r="G13" t="n">
         <v>1855300</v>
@@ -789,7 +789,7 @@
         <v>59.900002</v>
       </c>
       <c r="F14" t="n">
-        <v>58.748493</v>
+        <v>58.593613</v>
       </c>
       <c r="G14" t="n">
         <v>1446500</v>
@@ -814,7 +814,7 @@
         <v>59.75</v>
       </c>
       <c r="F15" t="n">
-        <v>58.601372</v>
+        <v>58.446888</v>
       </c>
       <c r="G15" t="n">
         <v>1982800</v>
@@ -839,7 +839,7 @@
         <v>59.939999</v>
       </c>
       <c r="F16" t="n">
-        <v>58.78772</v>
+        <v>58.632736</v>
       </c>
       <c r="G16" t="n">
         <v>961400</v>
@@ -864,7 +864,7 @@
         <v>60</v>
       </c>
       <c r="F17" t="n">
-        <v>58.846561</v>
+        <v>58.691437</v>
       </c>
       <c r="G17" t="n">
         <v>1036000</v>
@@ -889,7 +889,7 @@
         <v>59.860001</v>
       </c>
       <c r="F18" t="n">
-        <v>58.709259</v>
+        <v>58.554485</v>
       </c>
       <c r="G18" t="n">
         <v>4187800</v>
@@ -914,7 +914,7 @@
         <v>59.77</v>
       </c>
       <c r="F19" t="n">
-        <v>58.620991</v>
+        <v>58.466442</v>
       </c>
       <c r="G19" t="n">
         <v>1254300</v>
@@ -939,7 +939,7 @@
         <v>59.639999</v>
       </c>
       <c r="F20" t="n">
-        <v>58.493492</v>
+        <v>58.339279</v>
       </c>
       <c r="G20" t="n">
         <v>1551700</v>
@@ -964,7 +964,7 @@
         <v>59.869999</v>
       </c>
       <c r="F21" t="n">
-        <v>58.719063</v>
+        <v>58.564259</v>
       </c>
       <c r="G21" t="n">
         <v>1507600</v>
@@ -989,7 +989,7 @@
         <v>60.07</v>
       </c>
       <c r="F22" t="n">
-        <v>59.035515</v>
+        <v>58.87989</v>
       </c>
       <c r="G22" t="n">
         <v>2358600</v>
@@ -1014,7 +1014,7 @@
         <v>60.080002</v>
       </c>
       <c r="F23" t="n">
-        <v>59.045353</v>
+        <v>58.889683</v>
       </c>
       <c r="G23" t="n">
         <v>4014500</v>
@@ -1039,7 +1039,7 @@
         <v>59.580002</v>
       </c>
       <c r="F24" t="n">
-        <v>58.553963</v>
+        <v>58.399601</v>
       </c>
       <c r="G24" t="n">
         <v>1786100</v>
@@ -1064,7 +1064,7 @@
         <v>59.150002</v>
       </c>
       <c r="F25" t="n">
-        <v>58.131363</v>
+        <v>57.978115</v>
       </c>
       <c r="G25" t="n">
         <v>1537500</v>
@@ -1089,7 +1089,7 @@
         <v>59.09</v>
       </c>
       <c r="F26" t="n">
-        <v>58.072392</v>
+        <v>57.9193</v>
       </c>
       <c r="G26" t="n">
         <v>1974200</v>
@@ -1114,7 +1114,7 @@
         <v>59.23</v>
       </c>
       <c r="F27" t="n">
-        <v>58.209991</v>
+        <v>58.05653</v>
       </c>
       <c r="G27" t="n">
         <v>1377800</v>
@@ -1139,7 +1139,7 @@
         <v>59.040001</v>
       </c>
       <c r="F28" t="n">
-        <v>58.023262</v>
+        <v>57.8703</v>
       </c>
       <c r="G28" t="n">
         <v>2590000</v>
@@ -1164,7 +1164,7 @@
         <v>58.860001</v>
       </c>
       <c r="F29" t="n">
-        <v>57.846352</v>
+        <v>57.693859</v>
       </c>
       <c r="G29" t="n">
         <v>1898200</v>
@@ -1189,7 +1189,7 @@
         <v>58.93</v>
       </c>
       <c r="F30" t="n">
-        <v>57.91515</v>
+        <v>57.762474</v>
       </c>
       <c r="G30" t="n">
         <v>2631100</v>
@@ -1214,7 +1214,7 @@
         <v>58.669998</v>
       </c>
       <c r="F31" t="n">
-        <v>57.659622</v>
+        <v>57.507618</v>
       </c>
       <c r="G31" t="n">
         <v>6311300</v>
@@ -1239,7 +1239,7 @@
         <v>58.59</v>
       </c>
       <c r="F32" t="n">
-        <v>57.581009</v>
+        <v>57.429211</v>
       </c>
       <c r="G32" t="n">
         <v>4077900</v>
@@ -1264,7 +1264,7 @@
         <v>58.5</v>
       </c>
       <c r="F33" t="n">
-        <v>57.492558</v>
+        <v>57.340992</v>
       </c>
       <c r="G33" t="n">
         <v>6726800</v>
@@ -1289,7 +1289,7 @@
         <v>58.630001</v>
       </c>
       <c r="F34" t="n">
-        <v>57.620323</v>
+        <v>57.468418</v>
       </c>
       <c r="G34" t="n">
         <v>2906100</v>
@@ -1314,7 +1314,7 @@
         <v>58.200001</v>
       </c>
       <c r="F35" t="n">
-        <v>57.197723</v>
+        <v>57.046936</v>
       </c>
       <c r="G35" t="n">
         <v>3648300</v>
@@ -1339,7 +1339,7 @@
         <v>58.27</v>
       </c>
       <c r="F36" t="n">
-        <v>57.266518</v>
+        <v>57.115547</v>
       </c>
       <c r="G36" t="n">
         <v>3129100</v>
@@ -1364,7 +1364,7 @@
         <v>58.400002</v>
       </c>
       <c r="F37" t="n">
-        <v>57.394279</v>
+        <v>57.242973</v>
       </c>
       <c r="G37" t="n">
         <v>2451200</v>
@@ -1389,7 +1389,7 @@
         <v>58.119999</v>
       </c>
       <c r="F38" t="n">
-        <v>57.119102</v>
+        <v>56.968513</v>
       </c>
       <c r="G38" t="n">
         <v>2237400</v>
@@ -1414,7 +1414,7 @@
         <v>58.25</v>
       </c>
       <c r="F39" t="n">
-        <v>57.246864</v>
+        <v>57.095943</v>
       </c>
       <c r="G39" t="n">
         <v>3802200</v>
@@ -1439,7 +1439,7 @@
         <v>58.290001</v>
       </c>
       <c r="F40" t="n">
-        <v>57.286179</v>
+        <v>57.135151</v>
       </c>
       <c r="G40" t="n">
         <v>1913400</v>
@@ -1464,7 +1464,7 @@
         <v>57.860001</v>
       </c>
       <c r="F41" t="n">
-        <v>56.97599</v>
+        <v>56.825787</v>
       </c>
       <c r="G41" t="n">
         <v>2232800</v>
@@ -1489,7 +1489,7 @@
         <v>57.720001</v>
       </c>
       <c r="F42" t="n">
-        <v>56.838123</v>
+        <v>56.688286</v>
       </c>
       <c r="G42" t="n">
         <v>1894100</v>
@@ -1514,7 +1514,7 @@
         <v>57.98</v>
       </c>
       <c r="F43" t="n">
-        <v>57.094154</v>
+        <v>56.943642</v>
       </c>
       <c r="G43" t="n">
         <v>2019300</v>
@@ -1539,7 +1539,7 @@
         <v>57.91</v>
       </c>
       <c r="F44" t="n">
-        <v>57.025223</v>
+        <v>56.874889</v>
       </c>
       <c r="G44" t="n">
         <v>1766200</v>
@@ -1564,7 +1564,7 @@
         <v>57.830002</v>
       </c>
       <c r="F45" t="n">
-        <v>56.946449</v>
+        <v>56.796318</v>
       </c>
       <c r="G45" t="n">
         <v>2534900</v>
@@ -1589,7 +1589,7 @@
         <v>57.779999</v>
       </c>
       <c r="F46" t="n">
-        <v>56.897209</v>
+        <v>56.747215</v>
       </c>
       <c r="G46" t="n">
         <v>2439500</v>
@@ -1614,7 +1614,7 @@
         <v>58.139999</v>
       </c>
       <c r="F47" t="n">
-        <v>57.251709</v>
+        <v>57.100777</v>
       </c>
       <c r="G47" t="n">
         <v>1569400</v>
@@ -1639,7 +1639,7 @@
         <v>58.889999</v>
       </c>
       <c r="F48" t="n">
-        <v>57.99025</v>
+        <v>57.837376</v>
       </c>
       <c r="G48" t="n">
         <v>2527000</v>
@@ -1664,7 +1664,7 @@
         <v>59.599998</v>
       </c>
       <c r="F49" t="n">
-        <v>58.6894</v>
+        <v>58.534679</v>
       </c>
       <c r="G49" t="n">
         <v>5723900</v>
@@ -1689,7 +1689,7 @@
         <v>59.189999</v>
       </c>
       <c r="F50" t="n">
-        <v>58.285664</v>
+        <v>58.132015</v>
       </c>
       <c r="G50" t="n">
         <v>6438300</v>
@@ -1714,7 +1714,7 @@
         <v>59.91</v>
       </c>
       <c r="F51" t="n">
-        <v>58.994663</v>
+        <v>58.839138</v>
       </c>
       <c r="G51" t="n">
         <v>7294300</v>
@@ -1739,7 +1739,7 @@
         <v>59.459999</v>
       </c>
       <c r="F52" t="n">
-        <v>58.55154</v>
+        <v>58.397179</v>
       </c>
       <c r="G52" t="n">
         <v>6014900</v>
@@ -1764,7 +1764,7 @@
         <v>60.040001</v>
       </c>
       <c r="F53" t="n">
-        <v>59.122677</v>
+        <v>58.966812</v>
       </c>
       <c r="G53" t="n">
         <v>2511100</v>
@@ -1789,7 +1789,7 @@
         <v>59.830002</v>
       </c>
       <c r="F54" t="n">
-        <v>58.91589</v>
+        <v>58.760571</v>
       </c>
       <c r="G54" t="n">
         <v>2867200</v>
@@ -1814,7 +1814,7 @@
         <v>59.41</v>
       </c>
       <c r="F55" t="n">
-        <v>58.502304</v>
+        <v>58.348072</v>
       </c>
       <c r="G55" t="n">
         <v>2556600</v>
@@ -1839,7 +1839,7 @@
         <v>60.029999</v>
       </c>
       <c r="F56" t="n">
-        <v>59.112831</v>
+        <v>58.956997</v>
       </c>
       <c r="G56" t="n">
         <v>5451700</v>
@@ -1864,7 +1864,7 @@
         <v>60.389999</v>
       </c>
       <c r="F57" t="n">
-        <v>59.467331</v>
+        <v>59.310566</v>
       </c>
       <c r="G57" t="n">
         <v>3073900</v>
@@ -1889,7 +1889,7 @@
         <v>60.369999</v>
       </c>
       <c r="F58" t="n">
-        <v>59.447636</v>
+        <v>59.290916</v>
       </c>
       <c r="G58" t="n">
         <v>3706100</v>
@@ -1914,7 +1914,7 @@
         <v>59.810001</v>
       </c>
       <c r="F59" t="n">
-        <v>58.896191</v>
+        <v>58.740929</v>
       </c>
       <c r="G59" t="n">
         <v>1804900</v>
@@ -1939,7 +1939,7 @@
         <v>59.720001</v>
       </c>
       <c r="F60" t="n">
-        <v>58.807568</v>
+        <v>58.652538</v>
       </c>
       <c r="G60" t="n">
         <v>1653500</v>
@@ -1964,7 +1964,7 @@
         <v>59.639999</v>
       </c>
       <c r="F61" t="n">
-        <v>58.728798</v>
+        <v>58.573963</v>
       </c>
       <c r="G61" t="n">
         <v>2577100</v>
@@ -1989,7 +1989,7 @@
         <v>59.709999</v>
       </c>
       <c r="F62" t="n">
-        <v>58.797722</v>
+        <v>58.642715</v>
       </c>
       <c r="G62" t="n">
         <v>1227200</v>
@@ -2014,7 +2014,7 @@
         <v>59.959999</v>
       </c>
       <c r="F63" t="n">
-        <v>59.043903</v>
+        <v>58.888245</v>
       </c>
       <c r="G63" t="n">
         <v>1964300</v>
@@ -2039,7 +2039,7 @@
         <v>60.049999</v>
       </c>
       <c r="F64" t="n">
-        <v>59.256065</v>
+        <v>59.099846</v>
       </c>
       <c r="G64" t="n">
         <v>1904500</v>
@@ -2064,7 +2064,7 @@
         <v>60.369999</v>
       </c>
       <c r="F65" t="n">
-        <v>59.571831</v>
+        <v>59.41478</v>
       </c>
       <c r="G65" t="n">
         <v>1856600</v>
@@ -2089,7 +2089,7 @@
         <v>60.52</v>
       </c>
       <c r="F66" t="n">
-        <v>59.719849</v>
+        <v>59.562412</v>
       </c>
       <c r="G66" t="n">
         <v>1736500</v>
@@ -2114,7 +2114,7 @@
         <v>60.529999</v>
       </c>
       <c r="F67" t="n">
-        <v>59.729713</v>
+        <v>59.572247</v>
       </c>
       <c r="G67" t="n">
         <v>1474100</v>
@@ -2139,7 +2139,7 @@
         <v>60.080002</v>
       </c>
       <c r="F68" t="n">
-        <v>59.285671</v>
+        <v>59.129372</v>
       </c>
       <c r="G68" t="n">
         <v>2089000</v>
@@ -2164,7 +2164,7 @@
         <v>60.049999</v>
       </c>
       <c r="F69" t="n">
-        <v>59.256065</v>
+        <v>59.099846</v>
       </c>
       <c r="G69" t="n">
         <v>1461300</v>
@@ -2189,7 +2189,7 @@
         <v>60.23</v>
       </c>
       <c r="F70" t="n">
-        <v>59.433678</v>
+        <v>59.276997</v>
       </c>
       <c r="G70" t="n">
         <v>5763400</v>
@@ -2214,7 +2214,7 @@
         <v>60.130001</v>
       </c>
       <c r="F71" t="n">
-        <v>59.335003</v>
+        <v>59.178585</v>
       </c>
       <c r="G71" t="n">
         <v>1616400</v>
@@ -2239,7 +2239,7 @@
         <v>59.889999</v>
       </c>
       <c r="F72" t="n">
-        <v>59.098175</v>
+        <v>58.942379</v>
       </c>
       <c r="G72" t="n">
         <v>2046000</v>
@@ -2264,7 +2264,7 @@
         <v>59.599998</v>
       </c>
       <c r="F73" t="n">
-        <v>58.812008</v>
+        <v>58.656971</v>
       </c>
       <c r="G73" t="n">
         <v>871200</v>
@@ -2289,7 +2289,7 @@
         <v>59.66</v>
       </c>
       <c r="F74" t="n">
-        <v>58.871216</v>
+        <v>58.716015</v>
       </c>
       <c r="G74" t="n">
         <v>912600</v>
@@ -2314,7 +2314,7 @@
         <v>59.560001</v>
       </c>
       <c r="F75" t="n">
-        <v>58.772541</v>
+        <v>58.617599</v>
       </c>
       <c r="G75" t="n">
         <v>940900</v>
@@ -2339,7 +2339,7 @@
         <v>59.82</v>
       </c>
       <c r="F76" t="n">
-        <v>59.029099</v>
+        <v>58.873482</v>
       </c>
       <c r="G76" t="n">
         <v>1291600</v>
@@ -2364,7 +2364,7 @@
         <v>59.73</v>
       </c>
       <c r="F77" t="n">
-        <v>58.940289</v>
+        <v>58.784908</v>
       </c>
       <c r="G77" t="n">
         <v>861400</v>
@@ -2389,7 +2389,7 @@
         <v>59.939999</v>
       </c>
       <c r="F78" t="n">
-        <v>59.147511</v>
+        <v>58.991585</v>
       </c>
       <c r="G78" t="n">
         <v>1001700</v>
@@ -2414,7 +2414,7 @@
         <v>60.439999</v>
       </c>
       <c r="F79" t="n">
-        <v>59.640903</v>
+        <v>59.483673</v>
       </c>
       <c r="G79" t="n">
         <v>1242700</v>
@@ -2439,7 +2439,7 @@
         <v>60.279999</v>
       </c>
       <c r="F80" t="n">
-        <v>59.483017</v>
+        <v>59.326199</v>
       </c>
       <c r="G80" t="n">
         <v>1169600</v>
@@ -2464,7 +2464,7 @@
         <v>59.939999</v>
       </c>
       <c r="F81" t="n">
-        <v>59.147511</v>
+        <v>58.991585</v>
       </c>
       <c r="G81" t="n">
         <v>2827300</v>
@@ -2489,7 +2489,7 @@
         <v>60.27</v>
       </c>
       <c r="F82" t="n">
-        <v>59.473152</v>
+        <v>59.316364</v>
       </c>
       <c r="G82" t="n">
         <v>2204000</v>
@@ -2514,7 +2514,7 @@
         <v>59.68</v>
       </c>
       <c r="F83" t="n">
-        <v>59.010403</v>
+        <v>58.854836</v>
       </c>
       <c r="G83" t="n">
         <v>1784900</v>
@@ -2539,7 +2539,7 @@
         <v>60.25</v>
       </c>
       <c r="F84" t="n">
-        <v>59.574005</v>
+        <v>59.416954</v>
       </c>
       <c r="G84" t="n">
         <v>1737600</v>
@@ -2564,7 +2564,7 @@
         <v>60.59</v>
       </c>
       <c r="F85" t="n">
-        <v>59.910194</v>
+        <v>59.752254</v>
       </c>
       <c r="G85" t="n">
         <v>1389700</v>
@@ -2589,7 +2589,7 @@
         <v>60.650002</v>
       </c>
       <c r="F86" t="n">
-        <v>59.969524</v>
+        <v>59.811428</v>
       </c>
       <c r="G86" t="n">
         <v>2793100</v>
@@ -2614,7 +2614,7 @@
         <v>60.360001</v>
       </c>
       <c r="F87" t="n">
-        <v>59.68277</v>
+        <v>59.525436</v>
       </c>
       <c r="G87" t="n">
         <v>4097000</v>
@@ -2639,7 +2639,7 @@
         <v>60.110001</v>
       </c>
       <c r="F88" t="n">
-        <v>59.435581</v>
+        <v>59.278896</v>
       </c>
       <c r="G88" t="n">
         <v>1617200</v>
@@ -2664,7 +2664,7 @@
         <v>60.060001</v>
       </c>
       <c r="F89" t="n">
-        <v>59.386139</v>
+        <v>59.229588</v>
       </c>
       <c r="G89" t="n">
         <v>2129600</v>
@@ -2689,7 +2689,7 @@
         <v>60.43</v>
       </c>
       <c r="F90" t="n">
-        <v>59.751987</v>
+        <v>59.594467</v>
       </c>
       <c r="G90" t="n">
         <v>2377200</v>
@@ -2714,7 +2714,7 @@
         <v>60.540001</v>
       </c>
       <c r="F91" t="n">
-        <v>59.860756</v>
+        <v>59.702942</v>
       </c>
       <c r="G91" t="n">
         <v>1439700</v>
@@ -2739,7 +2739,7 @@
         <v>60.27</v>
       </c>
       <c r="F92" t="n">
-        <v>59.593784</v>
+        <v>59.43668</v>
       </c>
       <c r="G92" t="n">
         <v>1975300</v>
@@ -2764,7 +2764,7 @@
         <v>60.220001</v>
       </c>
       <c r="F93" t="n">
-        <v>59.544346</v>
+        <v>59.387375</v>
       </c>
       <c r="G93" t="n">
         <v>2351500</v>
@@ -2789,7 +2789,7 @@
         <v>60.080002</v>
       </c>
       <c r="F94" t="n">
-        <v>59.405922</v>
+        <v>59.249306</v>
       </c>
       <c r="G94" t="n">
         <v>2200300</v>
@@ -2814,7 +2814,7 @@
         <v>59.889999</v>
       </c>
       <c r="F95" t="n">
-        <v>59.218048</v>
+        <v>59.061935</v>
       </c>
       <c r="G95" t="n">
         <v>1645600</v>
@@ -2839,7 +2839,7 @@
         <v>59.610001</v>
       </c>
       <c r="F96" t="n">
-        <v>58.941193</v>
+        <v>58.785805</v>
       </c>
       <c r="G96" t="n">
         <v>2963000</v>
@@ -2864,7 +2864,7 @@
         <v>59.419998</v>
       </c>
       <c r="F97" t="n">
-        <v>58.753319</v>
+        <v>58.598427</v>
       </c>
       <c r="G97" t="n">
         <v>2283200</v>
@@ -2889,7 +2889,7 @@
         <v>59.380001</v>
       </c>
       <c r="F98" t="n">
-        <v>58.713768</v>
+        <v>58.55899</v>
       </c>
       <c r="G98" t="n">
         <v>3127700</v>
@@ -2914,7 +2914,7 @@
         <v>59.439999</v>
       </c>
       <c r="F99" t="n">
-        <v>58.773094</v>
+        <v>58.618153</v>
       </c>
       <c r="G99" t="n">
         <v>1391900</v>
@@ -2939,7 +2939,7 @@
         <v>59.32</v>
       </c>
       <c r="F100" t="n">
-        <v>58.654438</v>
+        <v>58.499813</v>
       </c>
       <c r="G100" t="n">
         <v>1526500</v>
@@ -2964,7 +2964,7 @@
         <v>58.990002</v>
       </c>
       <c r="F101" t="n">
-        <v>58.328144</v>
+        <v>58.174381</v>
       </c>
       <c r="G101" t="n">
         <v>2161900</v>
@@ -2989,7 +2989,7 @@
         <v>58.98</v>
       </c>
       <c r="F102" t="n">
-        <v>58.31826</v>
+        <v>58.164513</v>
       </c>
       <c r="G102" t="n">
         <v>1375600</v>
@@ -3014,7 +3014,7 @@
         <v>59.349998</v>
       </c>
       <c r="F103" t="n">
-        <v>58.684101</v>
+        <v>58.529396</v>
       </c>
       <c r="G103" t="n">
         <v>1224300</v>
@@ -3039,7 +3039,7 @@
         <v>59.509998</v>
       </c>
       <c r="F104" t="n">
-        <v>58.842308</v>
+        <v>58.687187</v>
       </c>
       <c r="G104" t="n">
         <v>2398000</v>
@@ -3064,7 +3064,7 @@
         <v>59.529999</v>
       </c>
       <c r="F105" t="n">
-        <v>58.98996</v>
+        <v>58.834446</v>
       </c>
       <c r="G105" t="n">
         <v>1343600</v>
@@ -3089,7 +3089,7 @@
         <v>59.139999</v>
       </c>
       <c r="F106" t="n">
-        <v>58.603493</v>
+        <v>58.449001</v>
       </c>
       <c r="G106" t="n">
         <v>1134700</v>
@@ -3114,7 +3114,7 @@
         <v>59.150002</v>
       </c>
       <c r="F107" t="n">
-        <v>58.613407</v>
+        <v>58.458885</v>
       </c>
       <c r="G107" t="n">
         <v>2423400</v>
@@ -3139,7 +3139,7 @@
         <v>59.139999</v>
       </c>
       <c r="F108" t="n">
-        <v>58.603493</v>
+        <v>58.449001</v>
       </c>
       <c r="G108" t="n">
         <v>1440700</v>
@@ -3164,7 +3164,7 @@
         <v>58.880001</v>
       </c>
       <c r="F109" t="n">
-        <v>58.345856</v>
+        <v>58.192047</v>
       </c>
       <c r="G109" t="n">
         <v>1950200</v>
@@ -3189,7 +3189,7 @@
         <v>59.150002</v>
       </c>
       <c r="F110" t="n">
-        <v>58.613407</v>
+        <v>58.458885</v>
       </c>
       <c r="G110" t="n">
         <v>1090300</v>
@@ -3214,7 +3214,7 @@
         <v>58.959999</v>
       </c>
       <c r="F111" t="n">
-        <v>58.425125</v>
+        <v>58.271107</v>
       </c>
       <c r="G111" t="n">
         <v>944900</v>
@@ -3239,7 +3239,7 @@
         <v>59.060001</v>
       </c>
       <c r="F112" t="n">
-        <v>58.524223</v>
+        <v>58.369938</v>
       </c>
       <c r="G112" t="n">
         <v>1118100</v>
@@ -3264,7 +3264,7 @@
         <v>58.75</v>
       </c>
       <c r="F113" t="n">
-        <v>58.217033</v>
+        <v>58.06356</v>
       </c>
       <c r="G113" t="n">
         <v>2160700</v>
@@ -3289,7 +3289,7 @@
         <v>58.740002</v>
       </c>
       <c r="F114" t="n">
-        <v>58.20713</v>
+        <v>58.053677</v>
       </c>
       <c r="G114" t="n">
         <v>5187500</v>
@@ -3314,7 +3314,7 @@
         <v>59.099998</v>
       </c>
       <c r="F115" t="n">
-        <v>58.563858</v>
+        <v>58.40947</v>
       </c>
       <c r="G115" t="n">
         <v>2215100</v>
@@ -3339,7 +3339,7 @@
         <v>58.880001</v>
       </c>
       <c r="F116" t="n">
-        <v>58.345856</v>
+        <v>58.192047</v>
       </c>
       <c r="G116" t="n">
         <v>4494200</v>
@@ -3364,7 +3364,7 @@
         <v>58.98</v>
       </c>
       <c r="F117" t="n">
-        <v>58.44495</v>
+        <v>58.290871</v>
       </c>
       <c r="G117" t="n">
         <v>2541100</v>
@@ -3389,7 +3389,7 @@
         <v>59.009998</v>
       </c>
       <c r="F118" t="n">
-        <v>58.474678</v>
+        <v>58.320522</v>
       </c>
       <c r="G118" t="n">
         <v>2199300</v>
@@ -3414,7 +3414,7 @@
         <v>58.799999</v>
       </c>
       <c r="F119" t="n">
-        <v>58.266582</v>
+        <v>58.112976</v>
       </c>
       <c r="G119" t="n">
         <v>843600</v>
@@ -3439,7 +3439,7 @@
         <v>58.919998</v>
       </c>
       <c r="F120" t="n">
-        <v>58.38549</v>
+        <v>58.231571</v>
       </c>
       <c r="G120" t="n">
         <v>1205000</v>
@@ -3464,7 +3464,7 @@
         <v>59.040001</v>
       </c>
       <c r="F121" t="n">
-        <v>58.504406</v>
+        <v>58.35017</v>
       </c>
       <c r="G121" t="n">
         <v>1052700</v>
@@ -3489,7 +3489,7 @@
         <v>58.860001</v>
       </c>
       <c r="F122" t="n">
-        <v>58.326035</v>
+        <v>58.172276</v>
       </c>
       <c r="G122" t="n">
         <v>1470500</v>
@@ -3514,7 +3514,7 @@
         <v>59.040001</v>
       </c>
       <c r="F123" t="n">
-        <v>58.504406</v>
+        <v>58.35017</v>
       </c>
       <c r="G123" t="n">
         <v>1860800</v>
@@ -3539,7 +3539,7 @@
         <v>58.610001</v>
       </c>
       <c r="F124" t="n">
-        <v>58.078304</v>
+        <v>57.925194</v>
       </c>
       <c r="G124" t="n">
         <v>1871400</v>
@@ -3564,7 +3564,7 @@
         <v>58.66</v>
       </c>
       <c r="F125" t="n">
-        <v>58.127853</v>
+        <v>57.974609</v>
       </c>
       <c r="G125" t="n">
         <v>1798400</v>
@@ -3589,7 +3589,7 @@
         <v>58.360001</v>
       </c>
       <c r="F126" t="n">
-        <v>57.957039</v>
+        <v>57.804249</v>
       </c>
       <c r="G126" t="n">
         <v>935900</v>
@@ -3614,7 +3614,7 @@
         <v>58.189999</v>
       </c>
       <c r="F127" t="n">
-        <v>57.788212</v>
+        <v>57.635864</v>
       </c>
       <c r="G127" t="n">
         <v>1926800</v>
@@ -3639,7 +3639,7 @@
         <v>57.869999</v>
       </c>
       <c r="F128" t="n">
-        <v>57.470417</v>
+        <v>57.318909</v>
       </c>
       <c r="G128" t="n">
         <v>3567600</v>
@@ -3664,7 +3664,7 @@
         <v>57.869999</v>
       </c>
       <c r="F129" t="n">
-        <v>57.470417</v>
+        <v>57.318909</v>
       </c>
       <c r="G129" t="n">
         <v>1276800</v>
@@ -3689,7 +3689,7 @@
         <v>58.139999</v>
       </c>
       <c r="F130" t="n">
-        <v>57.738556</v>
+        <v>57.586342</v>
       </c>
       <c r="G130" t="n">
         <v>1465200</v>
@@ -3714,7 +3714,7 @@
         <v>58.18</v>
       </c>
       <c r="F131" t="n">
-        <v>57.778282</v>
+        <v>57.625965</v>
       </c>
       <c r="G131" t="n">
         <v>1871200</v>
@@ -3739,7 +3739,7 @@
         <v>58.630001</v>
       </c>
       <c r="F132" t="n">
-        <v>58.225174</v>
+        <v>58.071674</v>
       </c>
       <c r="G132" t="n">
         <v>1798500</v>
@@ -3764,7 +3764,7 @@
         <v>59.049999</v>
       </c>
       <c r="F133" t="n">
-        <v>58.642273</v>
+        <v>58.487675</v>
       </c>
       <c r="G133" t="n">
         <v>2043900</v>
@@ -3789,7 +3789,7 @@
         <v>58.779999</v>
       </c>
       <c r="F134" t="n">
-        <v>58.374138</v>
+        <v>58.220249</v>
       </c>
       <c r="G134" t="n">
         <v>1014000</v>
@@ -3814,7 +3814,7 @@
         <v>58.860001</v>
       </c>
       <c r="F135" t="n">
-        <v>58.45359</v>
+        <v>58.299484</v>
       </c>
       <c r="G135" t="n">
         <v>893800</v>
@@ -3839,7 +3839,7 @@
         <v>58.889999</v>
       </c>
       <c r="F136" t="n">
-        <v>58.483379</v>
+        <v>58.329201</v>
       </c>
       <c r="G136" t="n">
         <v>1395400</v>
@@ -3864,7 +3864,7 @@
         <v>59</v>
       </c>
       <c r="F137" t="n">
-        <v>58.592621</v>
+        <v>58.438156</v>
       </c>
       <c r="G137" t="n">
         <v>14745100</v>
@@ -3889,7 +3889,7 @@
         <v>58.689999</v>
       </c>
       <c r="F138" t="n">
-        <v>58.284756</v>
+        <v>58.131107</v>
       </c>
       <c r="G138" t="n">
         <v>20730600</v>
@@ -3914,7 +3914,7 @@
         <v>58.700001</v>
       </c>
       <c r="F139" t="n">
-        <v>58.294689</v>
+        <v>58.14101</v>
       </c>
       <c r="G139" t="n">
         <v>2161800</v>
@@ -3939,7 +3939,7 @@
         <v>58.580002</v>
       </c>
       <c r="F140" t="n">
-        <v>58.175522</v>
+        <v>58.022156</v>
       </c>
       <c r="G140" t="n">
         <v>1365800</v>
@@ -3964,7 +3964,7 @@
         <v>58.509998</v>
       </c>
       <c r="F141" t="n">
-        <v>58.105999</v>
+        <v>57.95282</v>
       </c>
       <c r="G141" t="n">
         <v>3482100</v>
@@ -3989,7 +3989,7 @@
         <v>58.66</v>
       </c>
       <c r="F142" t="n">
-        <v>58.254967</v>
+        <v>58.101391</v>
       </c>
       <c r="G142" t="n">
         <v>1970900</v>
@@ -4014,7 +4014,7 @@
         <v>58.259998</v>
       </c>
       <c r="F143" t="n">
-        <v>57.857723</v>
+        <v>57.7052</v>
       </c>
       <c r="G143" t="n">
         <v>1907000</v>
@@ -4039,7 +4039,7 @@
         <v>58.43</v>
       </c>
       <c r="F144" t="n">
-        <v>58.026558</v>
+        <v>57.873585</v>
       </c>
       <c r="G144" t="n">
         <v>9031100</v>
@@ -4064,7 +4064,7 @@
         <v>58.48</v>
       </c>
       <c r="F145" t="n">
-        <v>58.076206</v>
+        <v>57.923107</v>
       </c>
       <c r="G145" t="n">
         <v>1621200</v>
@@ -4089,7 +4089,7 @@
         <v>58.150002</v>
       </c>
       <c r="F146" t="n">
-        <v>57.875168</v>
+        <v>57.722595</v>
       </c>
       <c r="G146" t="n">
         <v>1479600</v>
@@ -4114,7 +4114,7 @@
         <v>58.130001</v>
       </c>
       <c r="F147" t="n">
-        <v>57.855263</v>
+        <v>57.702744</v>
       </c>
       <c r="G147" t="n">
         <v>2273000</v>
@@ -4139,7 +4139,7 @@
         <v>57.900002</v>
       </c>
       <c r="F148" t="n">
-        <v>57.626347</v>
+        <v>57.47443</v>
       </c>
       <c r="G148" t="n">
         <v>2141000</v>
@@ -4164,7 +4164,7 @@
         <v>58.34</v>
       </c>
       <c r="F149" t="n">
-        <v>58.06427</v>
+        <v>57.911198</v>
       </c>
       <c r="G149" t="n">
         <v>3147800</v>
@@ -4189,7 +4189,7 @@
         <v>58.27</v>
       </c>
       <c r="F150" t="n">
-        <v>57.994598</v>
+        <v>57.841709</v>
       </c>
       <c r="G150" t="n">
         <v>1124500</v>
@@ -4214,7 +4214,7 @@
         <v>58.439999</v>
       </c>
       <c r="F151" t="n">
-        <v>58.163792</v>
+        <v>58.010456</v>
       </c>
       <c r="G151" t="n">
         <v>1376500</v>
@@ -4239,7 +4239,7 @@
         <v>58.43</v>
       </c>
       <c r="F152" t="n">
-        <v>58.153843</v>
+        <v>58.000534</v>
       </c>
       <c r="G152" t="n">
         <v>1505300</v>
@@ -4264,7 +4264,7 @@
         <v>58.169998</v>
       </c>
       <c r="F153" t="n">
-        <v>57.895069</v>
+        <v>57.742443</v>
       </c>
       <c r="G153" t="n">
         <v>2549000</v>
@@ -4289,7 +4289,7 @@
         <v>57.93</v>
       </c>
       <c r="F154" t="n">
-        <v>57.656204</v>
+        <v>57.504211</v>
       </c>
       <c r="G154" t="n">
         <v>3131600</v>
@@ -4314,7 +4314,7 @@
         <v>57.82</v>
       </c>
       <c r="F155" t="n">
-        <v>57.546726</v>
+        <v>57.395016</v>
       </c>
       <c r="G155" t="n">
         <v>1208000</v>
@@ -4339,7 +4339,7 @@
         <v>57.790001</v>
       </c>
       <c r="F156" t="n">
-        <v>57.516869</v>
+        <v>57.365238</v>
       </c>
       <c r="G156" t="n">
         <v>1416800</v>
@@ -4364,7 +4364,7 @@
         <v>57.66</v>
       </c>
       <c r="F157" t="n">
-        <v>57.387482</v>
+        <v>57.236195</v>
       </c>
       <c r="G157" t="n">
         <v>5579500</v>
@@ -4389,7 +4389,7 @@
         <v>57.66</v>
       </c>
       <c r="F158" t="n">
-        <v>57.387482</v>
+        <v>57.236195</v>
       </c>
       <c r="G158" t="n">
         <v>2072100</v>
@@ -4414,7 +4414,7 @@
         <v>57.759998</v>
       </c>
       <c r="F159" t="n">
-        <v>57.487007</v>
+        <v>57.335457</v>
       </c>
       <c r="G159" t="n">
         <v>1729900</v>
@@ -4439,7 +4439,7 @@
         <v>57.529999</v>
       </c>
       <c r="F160" t="n">
-        <v>57.258099</v>
+        <v>57.107147</v>
       </c>
       <c r="G160" t="n">
         <v>5027300</v>
@@ -4464,7 +4464,7 @@
         <v>57.490002</v>
       </c>
       <c r="F161" t="n">
-        <v>57.218288</v>
+        <v>57.067448</v>
       </c>
       <c r="G161" t="n">
         <v>2433300</v>
@@ -4489,7 +4489,7 @@
         <v>57.900002</v>
       </c>
       <c r="F162" t="n">
-        <v>57.626347</v>
+        <v>57.47443</v>
       </c>
       <c r="G162" t="n">
         <v>2293100</v>
@@ -4514,7 +4514,7 @@
         <v>57.77</v>
       </c>
       <c r="F163" t="n">
-        <v>57.496964</v>
+        <v>57.345387</v>
       </c>
       <c r="G163" t="n">
         <v>3180900</v>
@@ -4539,7 +4539,7 @@
         <v>57.700001</v>
       </c>
       <c r="F164" t="n">
-        <v>57.427292</v>
+        <v>57.275902</v>
       </c>
       <c r="G164" t="n">
         <v>1632400</v>
@@ -4564,7 +4564,7 @@
         <v>57.810001</v>
       </c>
       <c r="F165" t="n">
-        <v>57.536774</v>
+        <v>57.38509</v>
       </c>
       <c r="G165" t="n">
         <v>1264800</v>
@@ -4589,7 +4589,7 @@
         <v>58.150002</v>
       </c>
       <c r="F166" t="n">
-        <v>57.875168</v>
+        <v>57.722595</v>
       </c>
       <c r="G166" t="n">
         <v>4368500</v>
@@ -4614,7 +4614,7 @@
         <v>58.130001</v>
       </c>
       <c r="F167" t="n">
-        <v>57.855263</v>
+        <v>57.702744</v>
       </c>
       <c r="G167" t="n">
         <v>1212800</v>
@@ -4639,7 +4639,7 @@
         <v>58.259998</v>
       </c>
       <c r="F168" t="n">
-        <v>57.984642</v>
+        <v>57.831779</v>
       </c>
       <c r="G168" t="n">
         <v>3150500</v>
@@ -4664,7 +4664,7 @@
         <v>57.919998</v>
       </c>
       <c r="F169" t="n">
-        <v>57.78014</v>
+        <v>57.627815</v>
       </c>
       <c r="G169" t="n">
         <v>1742300</v>
@@ -4689,7 +4689,7 @@
         <v>57.700001</v>
       </c>
       <c r="F170" t="n">
-        <v>57.560673</v>
+        <v>57.408928</v>
       </c>
       <c r="G170" t="n">
         <v>1012100</v>
@@ -4714,7 +4714,7 @@
         <v>57.540001</v>
       </c>
       <c r="F171" t="n">
-        <v>57.401058</v>
+        <v>57.249733</v>
       </c>
       <c r="G171" t="n">
         <v>1301900</v>
@@ -4739,7 +4739,7 @@
         <v>57.720001</v>
       </c>
       <c r="F172" t="n">
-        <v>57.580624</v>
+        <v>57.428825</v>
       </c>
       <c r="G172" t="n">
         <v>982100</v>
@@ -4764,7 +4764,7 @@
         <v>57.689999</v>
       </c>
       <c r="F173" t="n">
-        <v>57.550694</v>
+        <v>57.398975</v>
       </c>
       <c r="G173" t="n">
         <v>830900</v>
@@ -4789,7 +4789,7 @@
         <v>57.66</v>
       </c>
       <c r="F174" t="n">
-        <v>57.520767</v>
+        <v>57.369129</v>
       </c>
       <c r="G174" t="n">
         <v>1153700</v>
@@ -4814,7 +4814,7 @@
         <v>57.669998</v>
       </c>
       <c r="F175" t="n">
-        <v>57.530743</v>
+        <v>57.379078</v>
       </c>
       <c r="G175" t="n">
         <v>1214600</v>
@@ -4839,7 +4839,7 @@
         <v>57.75</v>
       </c>
       <c r="F176" t="n">
-        <v>57.61055</v>
+        <v>57.458675</v>
       </c>
       <c r="G176" t="n">
         <v>1641900</v>
@@ -4864,7 +4864,7 @@
         <v>57.669998</v>
       </c>
       <c r="F177" t="n">
-        <v>57.530743</v>
+        <v>57.379078</v>
       </c>
       <c r="G177" t="n">
         <v>1495600</v>
@@ -4889,7 +4889,7 @@
         <v>57.57</v>
       </c>
       <c r="F178" t="n">
-        <v>57.430984</v>
+        <v>57.279583</v>
       </c>
       <c r="G178" t="n">
         <v>3073100</v>
@@ -4914,7 +4914,7 @@
         <v>57.57</v>
       </c>
       <c r="F179" t="n">
-        <v>57.430984</v>
+        <v>57.279583</v>
       </c>
       <c r="G179" t="n">
         <v>1546600</v>
@@ -4939,7 +4939,7 @@
         <v>57.41</v>
       </c>
       <c r="F180" t="n">
-        <v>57.27137</v>
+        <v>57.120388</v>
       </c>
       <c r="G180" t="n">
         <v>1439300</v>
@@ -4964,7 +4964,7 @@
         <v>57.349998</v>
       </c>
       <c r="F181" t="n">
-        <v>57.211514</v>
+        <v>57.060688</v>
       </c>
       <c r="G181" t="n">
         <v>1855300</v>
@@ -4989,7 +4989,7 @@
         <v>57.169998</v>
       </c>
       <c r="F182" t="n">
-        <v>57.031948</v>
+        <v>56.881596</v>
       </c>
       <c r="G182" t="n">
         <v>2611600</v>
@@ -5014,7 +5014,7 @@
         <v>57.330002</v>
       </c>
       <c r="F183" t="n">
-        <v>57.191566</v>
+        <v>57.040794</v>
       </c>
       <c r="G183" t="n">
         <v>2644600</v>
@@ -5039,7 +5039,7 @@
         <v>57.110001</v>
       </c>
       <c r="F184" t="n">
-        <v>56.972095</v>
+        <v>56.821903</v>
       </c>
       <c r="G184" t="n">
         <v>2522300</v>
@@ -5064,7 +5064,7 @@
         <v>57.119999</v>
       </c>
       <c r="F185" t="n">
-        <v>56.982071</v>
+        <v>56.831852</v>
       </c>
       <c r="G185" t="n">
         <v>11222800</v>
@@ -5089,7 +5089,7 @@
         <v>56.93</v>
       </c>
       <c r="F186" t="n">
-        <v>56.79253</v>
+        <v>56.642811</v>
       </c>
       <c r="G186" t="n">
         <v>2820300</v>
@@ -5114,7 +5114,7 @@
         <v>57.110001</v>
       </c>
       <c r="F187" t="n">
-        <v>56.972095</v>
+        <v>56.821903</v>
       </c>
       <c r="G187" t="n">
         <v>8575100</v>
@@ -5139,7 +5139,7 @@
         <v>57.150002</v>
       </c>
       <c r="F188" t="n">
-        <v>57.012001</v>
+        <v>56.861702</v>
       </c>
       <c r="G188" t="n">
         <v>3310700</v>
@@ -5164,7 +5164,7 @@
         <v>56.709999</v>
       </c>
       <c r="F189" t="n">
-        <v>56.709999</v>
+        <v>56.560497</v>
       </c>
       <c r="G189" t="n">
         <v>5424000</v>
@@ -5189,7 +5189,7 @@
         <v>56.439999</v>
       </c>
       <c r="F190" t="n">
-        <v>56.439999</v>
+        <v>56.29121</v>
       </c>
       <c r="G190" t="n">
         <v>3970000</v>
@@ -5214,7 +5214,7 @@
         <v>56.700001</v>
       </c>
       <c r="F191" t="n">
-        <v>56.700001</v>
+        <v>56.550526</v>
       </c>
       <c r="G191" t="n">
         <v>3016200</v>
@@ -5239,7 +5239,7 @@
         <v>56.82</v>
       </c>
       <c r="F192" t="n">
-        <v>56.82</v>
+        <v>56.670208</v>
       </c>
       <c r="G192" t="n">
         <v>2468200</v>
@@ -5264,7 +5264,7 @@
         <v>56.599998</v>
       </c>
       <c r="F193" t="n">
-        <v>56.599998</v>
+        <v>56.450787</v>
       </c>
       <c r="G193" t="n">
         <v>3898900</v>
@@ -5289,7 +5289,7 @@
         <v>57.110001</v>
       </c>
       <c r="F194" t="n">
-        <v>57.110001</v>
+        <v>56.959446</v>
       </c>
       <c r="G194" t="n">
         <v>1408300</v>
@@ -5314,7 +5314,7 @@
         <v>57.009998</v>
       </c>
       <c r="F195" t="n">
-        <v>57.009998</v>
+        <v>56.859707</v>
       </c>
       <c r="G195" t="n">
         <v>3648600</v>
@@ -5339,7 +5339,7 @@
         <v>57.139999</v>
       </c>
       <c r="F196" t="n">
-        <v>57.139999</v>
+        <v>56.989365</v>
       </c>
       <c r="G196" t="n">
         <v>2805400</v>
@@ -5364,7 +5364,7 @@
         <v>56.810001</v>
       </c>
       <c r="F197" t="n">
-        <v>56.810001</v>
+        <v>56.660236</v>
       </c>
       <c r="G197" t="n">
         <v>1934100</v>
@@ -5389,7 +5389,7 @@
         <v>57</v>
       </c>
       <c r="F198" t="n">
-        <v>57</v>
+        <v>56.849735</v>
       </c>
       <c r="G198" t="n">
         <v>2768900</v>
@@ -5414,7 +5414,7 @@
         <v>56.790001</v>
       </c>
       <c r="F199" t="n">
-        <v>56.790001</v>
+        <v>56.640289</v>
       </c>
       <c r="G199" t="n">
         <v>1841900</v>
@@ -5439,7 +5439,7 @@
         <v>56.400002</v>
       </c>
       <c r="F200" t="n">
-        <v>56.400002</v>
+        <v>56.251316</v>
       </c>
       <c r="G200" t="n">
         <v>9872900</v>
@@ -5464,7 +5464,7 @@
         <v>56.25</v>
       </c>
       <c r="F201" t="n">
-        <v>56.25</v>
+        <v>56.101711</v>
       </c>
       <c r="G201" t="n">
         <v>11249400</v>
@@ -5489,7 +5489,7 @@
         <v>56.150002</v>
       </c>
       <c r="F202" t="n">
-        <v>56.150002</v>
+        <v>56.001976</v>
       </c>
       <c r="G202" t="n">
         <v>5852200</v>
@@ -5514,7 +5514,7 @@
         <v>56.419998</v>
       </c>
       <c r="F203" t="n">
-        <v>56.419998</v>
+        <v>56.271259</v>
       </c>
       <c r="G203" t="n">
         <v>5941500</v>
@@ -5539,7 +5539,7 @@
         <v>56.57</v>
       </c>
       <c r="F204" t="n">
-        <v>56.57</v>
+        <v>56.420868</v>
       </c>
       <c r="G204" t="n">
         <v>5158900</v>
@@ -5564,7 +5564,7 @@
         <v>56.59</v>
       </c>
       <c r="F205" t="n">
-        <v>56.59</v>
+        <v>56.440815</v>
       </c>
       <c r="G205" t="n">
         <v>3493500</v>
@@ -5589,7 +5589,7 @@
         <v>56.299999</v>
       </c>
       <c r="F206" t="n">
-        <v>56.299999</v>
+        <v>56.151577</v>
       </c>
       <c r="G206" t="n">
         <v>4307300</v>
@@ -5614,7 +5614,7 @@
         <v>56.610001</v>
       </c>
       <c r="F207" t="n">
-        <v>56.610001</v>
+        <v>56.460762</v>
       </c>
       <c r="G207" t="n">
         <v>4508800</v>
@@ -5639,7 +5639,7 @@
         <v>56.709999</v>
       </c>
       <c r="F208" t="n">
-        <v>56.709999</v>
+        <v>56.560497</v>
       </c>
       <c r="G208" t="n">
         <v>3568100</v>
@@ -5664,10 +5664,135 @@
         <v>56.57</v>
       </c>
       <c r="F209" t="n">
-        <v>56.57</v>
+        <v>56.420868</v>
       </c>
       <c r="G209" t="n">
         <v>3591400</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2023-10-31</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>56.580002</v>
+      </c>
+      <c r="C210" t="n">
+        <v>56.66</v>
+      </c>
+      <c r="D210" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="E210" t="n">
+        <v>56.52</v>
+      </c>
+      <c r="F210" t="n">
+        <v>56.370998</v>
+      </c>
+      <c r="G210" t="n">
+        <v>2816400</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2023-11-01</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>56.450001</v>
+      </c>
+      <c r="C211" t="n">
+        <v>56.84</v>
+      </c>
+      <c r="D211" t="n">
+        <v>56.43</v>
+      </c>
+      <c r="E211" t="n">
+        <v>56.799999</v>
+      </c>
+      <c r="F211" t="n">
+        <v>56.799999</v>
+      </c>
+      <c r="G211" t="n">
+        <v>5161600</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2023-11-02</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>57.07</v>
+      </c>
+      <c r="C212" t="n">
+        <v>57.119999</v>
+      </c>
+      <c r="D212" t="n">
+        <v>56.91</v>
+      </c>
+      <c r="E212" t="n">
+        <v>56.959999</v>
+      </c>
+      <c r="F212" t="n">
+        <v>56.959999</v>
+      </c>
+      <c r="G212" t="n">
+        <v>3083200</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2023-11-03</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>57.459999</v>
+      </c>
+      <c r="C213" t="n">
+        <v>57.549999</v>
+      </c>
+      <c r="D213" t="n">
+        <v>57.279999</v>
+      </c>
+      <c r="E213" t="n">
+        <v>57.330002</v>
+      </c>
+      <c r="F213" t="n">
+        <v>57.330002</v>
+      </c>
+      <c r="G213" t="n">
+        <v>3500100</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2023-11-06</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>57.169998</v>
+      </c>
+      <c r="C214" t="n">
+        <v>57.174999</v>
+      </c>
+      <c r="D214" t="n">
+        <v>57.040001</v>
+      </c>
+      <c r="E214" t="n">
+        <v>57.080002</v>
+      </c>
+      <c r="F214" t="n">
+        <v>57.080002</v>
+      </c>
+      <c r="G214" t="n">
+        <v>2606301</v>
       </c>
     </row>
   </sheetData>

--- a/utils/yahoofinance/VGIT_yahoofin_historical_data.xlsx
+++ b/utils/yahoofinance/VGIT_yahoofin_historical_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G214"/>
+  <dimension ref="A1:G216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
         <v>58.709999</v>
       </c>
       <c r="F2" t="n">
-        <v>57.429562</v>
+        <v>57.429565</v>
       </c>
       <c r="G2" t="n">
         <v>1862300</v>
@@ -539,7 +539,7 @@
         <v>58.880001</v>
       </c>
       <c r="F4" t="n">
-        <v>57.595863</v>
+        <v>57.595856</v>
       </c>
       <c r="G4" t="n">
         <v>1364100</v>
@@ -564,7 +564,7 @@
         <v>59.450001</v>
       </c>
       <c r="F5" t="n">
-        <v>58.153427</v>
+        <v>58.153419</v>
       </c>
       <c r="G5" t="n">
         <v>1450600</v>
@@ -589,7 +589,7 @@
         <v>59.560001</v>
       </c>
       <c r="F6" t="n">
-        <v>58.261028</v>
+        <v>58.261024</v>
       </c>
       <c r="G6" t="n">
         <v>1875900</v>
@@ -689,7 +689,7 @@
         <v>59.77</v>
       </c>
       <c r="F10" t="n">
-        <v>58.466442</v>
+        <v>58.46645</v>
       </c>
       <c r="G10" t="n">
         <v>1017900</v>
@@ -714,7 +714,7 @@
         <v>59.73</v>
       </c>
       <c r="F11" t="n">
-        <v>58.427315</v>
+        <v>58.427311</v>
       </c>
       <c r="G11" t="n">
         <v>1981500</v>
@@ -764,7 +764,7 @@
         <v>60.150002</v>
       </c>
       <c r="F13" t="n">
-        <v>58.838161</v>
+        <v>58.838158</v>
       </c>
       <c r="G13" t="n">
         <v>1855300</v>
@@ -814,7 +814,7 @@
         <v>59.75</v>
       </c>
       <c r="F15" t="n">
-        <v>58.446888</v>
+        <v>58.446884</v>
       </c>
       <c r="G15" t="n">
         <v>1982800</v>
@@ -889,7 +889,7 @@
         <v>59.860001</v>
       </c>
       <c r="F18" t="n">
-        <v>58.554485</v>
+        <v>58.554482</v>
       </c>
       <c r="G18" t="n">
         <v>4187800</v>
@@ -914,7 +914,7 @@
         <v>59.77</v>
       </c>
       <c r="F19" t="n">
-        <v>58.466442</v>
+        <v>58.46645</v>
       </c>
       <c r="G19" t="n">
         <v>1254300</v>
@@ -939,7 +939,7 @@
         <v>59.639999</v>
       </c>
       <c r="F20" t="n">
-        <v>58.339279</v>
+        <v>58.339287</v>
       </c>
       <c r="G20" t="n">
         <v>1551700</v>
@@ -964,7 +964,7 @@
         <v>59.869999</v>
       </c>
       <c r="F21" t="n">
-        <v>58.564259</v>
+        <v>58.564266</v>
       </c>
       <c r="G21" t="n">
         <v>1507600</v>
@@ -1014,7 +1014,7 @@
         <v>60.080002</v>
       </c>
       <c r="F23" t="n">
-        <v>58.889683</v>
+        <v>58.88969</v>
       </c>
       <c r="G23" t="n">
         <v>4014500</v>
@@ -1039,7 +1039,7 @@
         <v>59.580002</v>
       </c>
       <c r="F24" t="n">
-        <v>58.399601</v>
+        <v>58.399597</v>
       </c>
       <c r="G24" t="n">
         <v>1786100</v>
@@ -1089,7 +1089,7 @@
         <v>59.09</v>
       </c>
       <c r="F26" t="n">
-        <v>57.9193</v>
+        <v>57.919296</v>
       </c>
       <c r="G26" t="n">
         <v>1974200</v>
@@ -1114,7 +1114,7 @@
         <v>59.23</v>
       </c>
       <c r="F27" t="n">
-        <v>58.05653</v>
+        <v>58.056526</v>
       </c>
       <c r="G27" t="n">
         <v>1377800</v>
@@ -1139,7 +1139,7 @@
         <v>59.040001</v>
       </c>
       <c r="F28" t="n">
-        <v>57.8703</v>
+        <v>57.870293</v>
       </c>
       <c r="G28" t="n">
         <v>2590000</v>
@@ -1239,7 +1239,7 @@
         <v>58.59</v>
       </c>
       <c r="F32" t="n">
-        <v>57.429211</v>
+        <v>57.429214</v>
       </c>
       <c r="G32" t="n">
         <v>4077900</v>
@@ -1264,7 +1264,7 @@
         <v>58.5</v>
       </c>
       <c r="F33" t="n">
-        <v>57.340992</v>
+        <v>57.340988</v>
       </c>
       <c r="G33" t="n">
         <v>6726800</v>
@@ -1314,7 +1314,7 @@
         <v>58.200001</v>
       </c>
       <c r="F35" t="n">
-        <v>57.046936</v>
+        <v>57.04694</v>
       </c>
       <c r="G35" t="n">
         <v>3648300</v>
@@ -1364,7 +1364,7 @@
         <v>58.400002</v>
       </c>
       <c r="F37" t="n">
-        <v>57.242973</v>
+        <v>57.24297</v>
       </c>
       <c r="G37" t="n">
         <v>2451200</v>
@@ -1389,7 +1389,7 @@
         <v>58.119999</v>
       </c>
       <c r="F38" t="n">
-        <v>56.968513</v>
+        <v>56.968517</v>
       </c>
       <c r="G38" t="n">
         <v>2237400</v>
@@ -1439,7 +1439,7 @@
         <v>58.290001</v>
       </c>
       <c r="F40" t="n">
-        <v>57.135151</v>
+        <v>57.135155</v>
       </c>
       <c r="G40" t="n">
         <v>1913400</v>
@@ -1489,7 +1489,7 @@
         <v>57.720001</v>
       </c>
       <c r="F42" t="n">
-        <v>56.688286</v>
+        <v>56.68829</v>
       </c>
       <c r="G42" t="n">
         <v>1894100</v>
@@ -1514,7 +1514,7 @@
         <v>57.98</v>
       </c>
       <c r="F43" t="n">
-        <v>56.943642</v>
+        <v>56.943638</v>
       </c>
       <c r="G43" t="n">
         <v>2019300</v>
@@ -1564,7 +1564,7 @@
         <v>57.830002</v>
       </c>
       <c r="F45" t="n">
-        <v>56.796318</v>
+        <v>56.796322</v>
       </c>
       <c r="G45" t="n">
         <v>2534900</v>
@@ -1589,7 +1589,7 @@
         <v>57.779999</v>
       </c>
       <c r="F46" t="n">
-        <v>56.747215</v>
+        <v>56.747211</v>
       </c>
       <c r="G46" t="n">
         <v>2439500</v>
@@ -1614,7 +1614,7 @@
         <v>58.139999</v>
       </c>
       <c r="F47" t="n">
-        <v>57.100777</v>
+        <v>57.100784</v>
       </c>
       <c r="G47" t="n">
         <v>1569400</v>
@@ -1639,7 +1639,7 @@
         <v>58.889999</v>
       </c>
       <c r="F48" t="n">
-        <v>57.837376</v>
+        <v>57.837368</v>
       </c>
       <c r="G48" t="n">
         <v>2527000</v>
@@ -1664,7 +1664,7 @@
         <v>59.599998</v>
       </c>
       <c r="F49" t="n">
-        <v>58.534679</v>
+        <v>58.534683</v>
       </c>
       <c r="G49" t="n">
         <v>5723900</v>
@@ -1689,7 +1689,7 @@
         <v>59.189999</v>
       </c>
       <c r="F50" t="n">
-        <v>58.132015</v>
+        <v>58.132011</v>
       </c>
       <c r="G50" t="n">
         <v>6438300</v>
@@ -1739,7 +1739,7 @@
         <v>59.459999</v>
       </c>
       <c r="F52" t="n">
-        <v>58.397179</v>
+        <v>58.397182</v>
       </c>
       <c r="G52" t="n">
         <v>6014900</v>
@@ -1764,7 +1764,7 @@
         <v>60.040001</v>
       </c>
       <c r="F53" t="n">
-        <v>58.966812</v>
+        <v>58.966816</v>
       </c>
       <c r="G53" t="n">
         <v>2511100</v>
@@ -1789,7 +1789,7 @@
         <v>59.830002</v>
       </c>
       <c r="F54" t="n">
-        <v>58.760571</v>
+        <v>58.760574</v>
       </c>
       <c r="G54" t="n">
         <v>2867200</v>
@@ -1814,7 +1814,7 @@
         <v>59.41</v>
       </c>
       <c r="F55" t="n">
-        <v>58.348072</v>
+        <v>58.348083</v>
       </c>
       <c r="G55" t="n">
         <v>2556600</v>
@@ -1839,7 +1839,7 @@
         <v>60.029999</v>
       </c>
       <c r="F56" t="n">
-        <v>58.956997</v>
+        <v>58.956993</v>
       </c>
       <c r="G56" t="n">
         <v>5451700</v>
@@ -1864,7 +1864,7 @@
         <v>60.389999</v>
       </c>
       <c r="F57" t="n">
-        <v>59.310566</v>
+        <v>59.310562</v>
       </c>
       <c r="G57" t="n">
         <v>3073900</v>
@@ -1889,7 +1889,7 @@
         <v>60.369999</v>
       </c>
       <c r="F58" t="n">
-        <v>59.290916</v>
+        <v>59.29092</v>
       </c>
       <c r="G58" t="n">
         <v>3706100</v>
@@ -1939,7 +1939,7 @@
         <v>59.720001</v>
       </c>
       <c r="F60" t="n">
-        <v>58.652538</v>
+        <v>58.652534</v>
       </c>
       <c r="G60" t="n">
         <v>1653500</v>
@@ -1964,7 +1964,7 @@
         <v>59.639999</v>
       </c>
       <c r="F61" t="n">
-        <v>58.573963</v>
+        <v>58.573971</v>
       </c>
       <c r="G61" t="n">
         <v>2577100</v>
@@ -1989,7 +1989,7 @@
         <v>59.709999</v>
       </c>
       <c r="F62" t="n">
-        <v>58.642715</v>
+        <v>58.642712</v>
       </c>
       <c r="G62" t="n">
         <v>1227200</v>
@@ -2014,7 +2014,7 @@
         <v>59.959999</v>
       </c>
       <c r="F63" t="n">
-        <v>58.888245</v>
+        <v>58.888248</v>
       </c>
       <c r="G63" t="n">
         <v>1964300</v>
@@ -2064,7 +2064,7 @@
         <v>60.369999</v>
       </c>
       <c r="F65" t="n">
-        <v>59.41478</v>
+        <v>59.414783</v>
       </c>
       <c r="G65" t="n">
         <v>1856600</v>
@@ -2089,7 +2089,7 @@
         <v>60.52</v>
       </c>
       <c r="F66" t="n">
-        <v>59.562412</v>
+        <v>59.562408</v>
       </c>
       <c r="G66" t="n">
         <v>1736500</v>
@@ -2114,7 +2114,7 @@
         <v>60.529999</v>
       </c>
       <c r="F67" t="n">
-        <v>59.572247</v>
+        <v>59.572254</v>
       </c>
       <c r="G67" t="n">
         <v>1474100</v>
@@ -2189,7 +2189,7 @@
         <v>60.23</v>
       </c>
       <c r="F70" t="n">
-        <v>59.276997</v>
+        <v>59.277</v>
       </c>
       <c r="G70" t="n">
         <v>5763400</v>
@@ -2264,7 +2264,7 @@
         <v>59.599998</v>
       </c>
       <c r="F73" t="n">
-        <v>58.656971</v>
+        <v>58.656967</v>
       </c>
       <c r="G73" t="n">
         <v>871200</v>
@@ -2289,7 +2289,7 @@
         <v>59.66</v>
       </c>
       <c r="F74" t="n">
-        <v>58.716015</v>
+        <v>58.716019</v>
       </c>
       <c r="G74" t="n">
         <v>912600</v>
@@ -2364,7 +2364,7 @@
         <v>59.73</v>
       </c>
       <c r="F77" t="n">
-        <v>58.784908</v>
+        <v>58.784904</v>
       </c>
       <c r="G77" t="n">
         <v>861400</v>
@@ -2439,7 +2439,7 @@
         <v>60.279999</v>
       </c>
       <c r="F80" t="n">
-        <v>59.326199</v>
+        <v>59.326206</v>
       </c>
       <c r="G80" t="n">
         <v>1169600</v>
@@ -2564,7 +2564,7 @@
         <v>60.59</v>
       </c>
       <c r="F85" t="n">
-        <v>59.752254</v>
+        <v>59.752251</v>
       </c>
       <c r="G85" t="n">
         <v>1389700</v>
@@ -2639,7 +2639,7 @@
         <v>60.110001</v>
       </c>
       <c r="F88" t="n">
-        <v>59.278896</v>
+        <v>59.278893</v>
       </c>
       <c r="G88" t="n">
         <v>1617200</v>
@@ -2664,7 +2664,7 @@
         <v>60.060001</v>
       </c>
       <c r="F89" t="n">
-        <v>59.229588</v>
+        <v>59.229584</v>
       </c>
       <c r="G89" t="n">
         <v>2129600</v>
@@ -2714,7 +2714,7 @@
         <v>60.540001</v>
       </c>
       <c r="F91" t="n">
-        <v>59.702942</v>
+        <v>59.70295</v>
       </c>
       <c r="G91" t="n">
         <v>1439700</v>
@@ -2764,7 +2764,7 @@
         <v>60.220001</v>
       </c>
       <c r="F93" t="n">
-        <v>59.387375</v>
+        <v>59.387371</v>
       </c>
       <c r="G93" t="n">
         <v>2351500</v>
@@ -2814,7 +2814,7 @@
         <v>59.889999</v>
       </c>
       <c r="F95" t="n">
-        <v>59.061935</v>
+        <v>59.061932</v>
       </c>
       <c r="G95" t="n">
         <v>1645600</v>
@@ -2839,7 +2839,7 @@
         <v>59.610001</v>
       </c>
       <c r="F96" t="n">
-        <v>58.785805</v>
+        <v>58.785809</v>
       </c>
       <c r="G96" t="n">
         <v>2963000</v>
@@ -2864,7 +2864,7 @@
         <v>59.419998</v>
       </c>
       <c r="F97" t="n">
-        <v>58.598427</v>
+        <v>58.598431</v>
       </c>
       <c r="G97" t="n">
         <v>2283200</v>
@@ -2889,7 +2889,7 @@
         <v>59.380001</v>
       </c>
       <c r="F98" t="n">
-        <v>58.55899</v>
+        <v>58.558987</v>
       </c>
       <c r="G98" t="n">
         <v>3127700</v>
@@ -2964,7 +2964,7 @@
         <v>58.990002</v>
       </c>
       <c r="F101" t="n">
-        <v>58.174381</v>
+        <v>58.174374</v>
       </c>
       <c r="G101" t="n">
         <v>2161900</v>
@@ -3014,7 +3014,7 @@
         <v>59.349998</v>
       </c>
       <c r="F103" t="n">
-        <v>58.529396</v>
+        <v>58.529404</v>
       </c>
       <c r="G103" t="n">
         <v>1224300</v>
@@ -3039,7 +3039,7 @@
         <v>59.509998</v>
       </c>
       <c r="F104" t="n">
-        <v>58.687187</v>
+        <v>58.687183</v>
       </c>
       <c r="G104" t="n">
         <v>2398000</v>
@@ -3114,7 +3114,7 @@
         <v>59.150002</v>
       </c>
       <c r="F107" t="n">
-        <v>58.458885</v>
+        <v>58.458889</v>
       </c>
       <c r="G107" t="n">
         <v>2423400</v>
@@ -3164,7 +3164,7 @@
         <v>58.880001</v>
       </c>
       <c r="F109" t="n">
-        <v>58.192047</v>
+        <v>58.192039</v>
       </c>
       <c r="G109" t="n">
         <v>1950200</v>
@@ -3189,7 +3189,7 @@
         <v>59.150002</v>
       </c>
       <c r="F110" t="n">
-        <v>58.458885</v>
+        <v>58.458889</v>
       </c>
       <c r="G110" t="n">
         <v>1090300</v>
@@ -3214,7 +3214,7 @@
         <v>58.959999</v>
       </c>
       <c r="F111" t="n">
-        <v>58.271107</v>
+        <v>58.271103</v>
       </c>
       <c r="G111" t="n">
         <v>944900</v>
@@ -3264,7 +3264,7 @@
         <v>58.75</v>
       </c>
       <c r="F113" t="n">
-        <v>58.06356</v>
+        <v>58.063557</v>
       </c>
       <c r="G113" t="n">
         <v>2160700</v>
@@ -3289,7 +3289,7 @@
         <v>58.740002</v>
       </c>
       <c r="F114" t="n">
-        <v>58.053677</v>
+        <v>58.05368</v>
       </c>
       <c r="G114" t="n">
         <v>5187500</v>
@@ -3314,7 +3314,7 @@
         <v>59.099998</v>
       </c>
       <c r="F115" t="n">
-        <v>58.40947</v>
+        <v>58.409466</v>
       </c>
       <c r="G115" t="n">
         <v>2215100</v>
@@ -3339,7 +3339,7 @@
         <v>58.880001</v>
       </c>
       <c r="F116" t="n">
-        <v>58.192047</v>
+        <v>58.192039</v>
       </c>
       <c r="G116" t="n">
         <v>4494200</v>
@@ -3364,7 +3364,7 @@
         <v>58.98</v>
       </c>
       <c r="F117" t="n">
-        <v>58.290871</v>
+        <v>58.290867</v>
       </c>
       <c r="G117" t="n">
         <v>2541100</v>
@@ -3389,7 +3389,7 @@
         <v>59.009998</v>
       </c>
       <c r="F118" t="n">
-        <v>58.320522</v>
+        <v>58.320518</v>
       </c>
       <c r="G118" t="n">
         <v>2199300</v>
@@ -3439,7 +3439,7 @@
         <v>58.919998</v>
       </c>
       <c r="F120" t="n">
-        <v>58.231571</v>
+        <v>58.231575</v>
       </c>
       <c r="G120" t="n">
         <v>1205000</v>
@@ -3539,7 +3539,7 @@
         <v>58.610001</v>
       </c>
       <c r="F124" t="n">
-        <v>57.925194</v>
+        <v>57.925198</v>
       </c>
       <c r="G124" t="n">
         <v>1871400</v>
@@ -3639,7 +3639,7 @@
         <v>57.869999</v>
       </c>
       <c r="F128" t="n">
-        <v>57.318909</v>
+        <v>57.318913</v>
       </c>
       <c r="G128" t="n">
         <v>3567600</v>
@@ -3664,7 +3664,7 @@
         <v>57.869999</v>
       </c>
       <c r="F129" t="n">
-        <v>57.318909</v>
+        <v>57.318913</v>
       </c>
       <c r="G129" t="n">
         <v>1276800</v>
@@ -3689,7 +3689,7 @@
         <v>58.139999</v>
       </c>
       <c r="F130" t="n">
-        <v>57.586342</v>
+        <v>57.586349</v>
       </c>
       <c r="G130" t="n">
         <v>1465200</v>
@@ -3714,7 +3714,7 @@
         <v>58.18</v>
       </c>
       <c r="F131" t="n">
-        <v>57.625965</v>
+        <v>57.625961</v>
       </c>
       <c r="G131" t="n">
         <v>1871200</v>
@@ -3739,7 +3739,7 @@
         <v>58.630001</v>
       </c>
       <c r="F132" t="n">
-        <v>58.071674</v>
+        <v>58.071678</v>
       </c>
       <c r="G132" t="n">
         <v>1798500</v>
@@ -3764,7 +3764,7 @@
         <v>59.049999</v>
       </c>
       <c r="F133" t="n">
-        <v>58.487675</v>
+        <v>58.487679</v>
       </c>
       <c r="G133" t="n">
         <v>2043900</v>
@@ -3789,7 +3789,7 @@
         <v>58.779999</v>
       </c>
       <c r="F134" t="n">
-        <v>58.220249</v>
+        <v>58.220245</v>
       </c>
       <c r="G134" t="n">
         <v>1014000</v>
@@ -3889,7 +3889,7 @@
         <v>58.689999</v>
       </c>
       <c r="F138" t="n">
-        <v>58.131107</v>
+        <v>58.1311</v>
       </c>
       <c r="G138" t="n">
         <v>20730600</v>
@@ -4039,7 +4039,7 @@
         <v>58.43</v>
       </c>
       <c r="F144" t="n">
-        <v>57.873585</v>
+        <v>57.873581</v>
       </c>
       <c r="G144" t="n">
         <v>9031100</v>
@@ -4114,7 +4114,7 @@
         <v>58.130001</v>
       </c>
       <c r="F147" t="n">
-        <v>57.702744</v>
+        <v>57.70274</v>
       </c>
       <c r="G147" t="n">
         <v>2273000</v>
@@ -4164,7 +4164,7 @@
         <v>58.34</v>
       </c>
       <c r="F149" t="n">
-        <v>57.911198</v>
+        <v>57.911194</v>
       </c>
       <c r="G149" t="n">
         <v>3147800</v>
@@ -4189,7 +4189,7 @@
         <v>58.27</v>
       </c>
       <c r="F150" t="n">
-        <v>57.841709</v>
+        <v>57.841713</v>
       </c>
       <c r="G150" t="n">
         <v>1124500</v>
@@ -4289,7 +4289,7 @@
         <v>57.93</v>
       </c>
       <c r="F154" t="n">
-        <v>57.504211</v>
+        <v>57.504208</v>
       </c>
       <c r="G154" t="n">
         <v>3131600</v>
@@ -4314,7 +4314,7 @@
         <v>57.82</v>
       </c>
       <c r="F155" t="n">
-        <v>57.395016</v>
+        <v>57.39502</v>
       </c>
       <c r="G155" t="n">
         <v>1208000</v>
@@ -4464,7 +4464,7 @@
         <v>57.490002</v>
       </c>
       <c r="F161" t="n">
-        <v>57.067448</v>
+        <v>57.067444</v>
       </c>
       <c r="G161" t="n">
         <v>2433300</v>
@@ -4514,7 +4514,7 @@
         <v>57.77</v>
       </c>
       <c r="F163" t="n">
-        <v>57.345387</v>
+        <v>57.345383</v>
       </c>
       <c r="G163" t="n">
         <v>3180900</v>
@@ -4564,7 +4564,7 @@
         <v>57.810001</v>
       </c>
       <c r="F165" t="n">
-        <v>57.38509</v>
+        <v>57.385094</v>
       </c>
       <c r="G165" t="n">
         <v>1264800</v>
@@ -4614,7 +4614,7 @@
         <v>58.130001</v>
       </c>
       <c r="F167" t="n">
-        <v>57.702744</v>
+        <v>57.70274</v>
       </c>
       <c r="G167" t="n">
         <v>1212800</v>
@@ -4639,7 +4639,7 @@
         <v>58.259998</v>
       </c>
       <c r="F168" t="n">
-        <v>57.831779</v>
+        <v>57.831783</v>
       </c>
       <c r="G168" t="n">
         <v>3150500</v>
@@ -5780,7 +5780,7 @@
         <v>57.169998</v>
       </c>
       <c r="C214" t="n">
-        <v>57.174999</v>
+        <v>57.18</v>
       </c>
       <c r="D214" t="n">
         <v>57.040001</v>
@@ -5792,7 +5792,57 @@
         <v>57.080002</v>
       </c>
       <c r="G214" t="n">
-        <v>2606301</v>
+        <v>2679700</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2023-11-07</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>57.18</v>
+      </c>
+      <c r="C215" t="n">
+        <v>57.360001</v>
+      </c>
+      <c r="D215" t="n">
+        <v>57.169998</v>
+      </c>
+      <c r="E215" t="n">
+        <v>57.27</v>
+      </c>
+      <c r="F215" t="n">
+        <v>57.27</v>
+      </c>
+      <c r="G215" t="n">
+        <v>2038000</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2023-11-08</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>57.259998</v>
+      </c>
+      <c r="C216" t="n">
+        <v>57.41</v>
+      </c>
+      <c r="D216" t="n">
+        <v>57.25</v>
+      </c>
+      <c r="E216" t="n">
+        <v>57.369999</v>
+      </c>
+      <c r="F216" t="n">
+        <v>57.369999</v>
+      </c>
+      <c r="G216" t="n">
+        <v>2274015</v>
       </c>
     </row>
   </sheetData>

--- a/utils/yahoofinance/VGIT_yahoofin_historical_data.xlsx
+++ b/utils/yahoofinance/VGIT_yahoofin_historical_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G216"/>
+  <dimension ref="A1:G217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
         <v>58.709999</v>
       </c>
       <c r="F2" t="n">
-        <v>57.429565</v>
+        <v>57.429569</v>
       </c>
       <c r="G2" t="n">
         <v>1862300</v>
@@ -514,7 +514,7 @@
         <v>58.970001</v>
       </c>
       <c r="F3" t="n">
-        <v>57.683895</v>
+        <v>57.683899</v>
       </c>
       <c r="G3" t="n">
         <v>1741200</v>
@@ -564,7 +564,7 @@
         <v>59.450001</v>
       </c>
       <c r="F5" t="n">
-        <v>58.153419</v>
+        <v>58.153423</v>
       </c>
       <c r="G5" t="n">
         <v>1450600</v>
@@ -589,7 +589,7 @@
         <v>59.560001</v>
       </c>
       <c r="F6" t="n">
-        <v>58.261024</v>
+        <v>58.261032</v>
       </c>
       <c r="G6" t="n">
         <v>1875900</v>
@@ -614,7 +614,7 @@
         <v>59.380001</v>
       </c>
       <c r="F7" t="n">
-        <v>58.084953</v>
+        <v>58.084949</v>
       </c>
       <c r="G7" t="n">
         <v>1168400</v>
@@ -639,7 +639,7 @@
         <v>59.610001</v>
       </c>
       <c r="F8" t="n">
-        <v>58.309937</v>
+        <v>58.309933</v>
       </c>
       <c r="G8" t="n">
         <v>1086400</v>
@@ -664,7 +664,7 @@
         <v>60</v>
       </c>
       <c r="F9" t="n">
-        <v>58.691437</v>
+        <v>58.691425</v>
       </c>
       <c r="G9" t="n">
         <v>1661300</v>
@@ -689,7 +689,7 @@
         <v>59.77</v>
       </c>
       <c r="F10" t="n">
-        <v>58.46645</v>
+        <v>58.466446</v>
       </c>
       <c r="G10" t="n">
         <v>1017900</v>
@@ -714,7 +714,7 @@
         <v>59.73</v>
       </c>
       <c r="F11" t="n">
-        <v>58.427311</v>
+        <v>58.427319</v>
       </c>
       <c r="G11" t="n">
         <v>1981500</v>
@@ -739,7 +739,7 @@
         <v>60.259998</v>
       </c>
       <c r="F12" t="n">
-        <v>58.945759</v>
+        <v>58.945751</v>
       </c>
       <c r="G12" t="n">
         <v>1705600</v>
@@ -764,7 +764,7 @@
         <v>60.150002</v>
       </c>
       <c r="F13" t="n">
-        <v>58.838158</v>
+        <v>58.838161</v>
       </c>
       <c r="G13" t="n">
         <v>1855300</v>
@@ -789,7 +789,7 @@
         <v>59.900002</v>
       </c>
       <c r="F14" t="n">
-        <v>58.593613</v>
+        <v>58.593605</v>
       </c>
       <c r="G14" t="n">
         <v>1446500</v>
@@ -814,7 +814,7 @@
         <v>59.75</v>
       </c>
       <c r="F15" t="n">
-        <v>58.446884</v>
+        <v>58.44688</v>
       </c>
       <c r="G15" t="n">
         <v>1982800</v>
@@ -864,7 +864,7 @@
         <v>60</v>
       </c>
       <c r="F17" t="n">
-        <v>58.691437</v>
+        <v>58.691425</v>
       </c>
       <c r="G17" t="n">
         <v>1036000</v>
@@ -889,7 +889,7 @@
         <v>59.860001</v>
       </c>
       <c r="F18" t="n">
-        <v>58.554482</v>
+        <v>58.554493</v>
       </c>
       <c r="G18" t="n">
         <v>4187800</v>
@@ -914,7 +914,7 @@
         <v>59.77</v>
       </c>
       <c r="F19" t="n">
-        <v>58.46645</v>
+        <v>58.466446</v>
       </c>
       <c r="G19" t="n">
         <v>1254300</v>
@@ -939,7 +939,7 @@
         <v>59.639999</v>
       </c>
       <c r="F20" t="n">
-        <v>58.339287</v>
+        <v>58.339275</v>
       </c>
       <c r="G20" t="n">
         <v>1551700</v>
@@ -1064,7 +1064,7 @@
         <v>59.150002</v>
       </c>
       <c r="F25" t="n">
-        <v>57.978115</v>
+        <v>57.978119</v>
       </c>
       <c r="G25" t="n">
         <v>1537500</v>
@@ -1089,7 +1089,7 @@
         <v>59.09</v>
       </c>
       <c r="F26" t="n">
-        <v>57.919296</v>
+        <v>57.919304</v>
       </c>
       <c r="G26" t="n">
         <v>1974200</v>
@@ -1114,7 +1114,7 @@
         <v>59.23</v>
       </c>
       <c r="F27" t="n">
-        <v>58.056526</v>
+        <v>58.05653</v>
       </c>
       <c r="G27" t="n">
         <v>1377800</v>
@@ -1139,7 +1139,7 @@
         <v>59.040001</v>
       </c>
       <c r="F28" t="n">
-        <v>57.870293</v>
+        <v>57.870296</v>
       </c>
       <c r="G28" t="n">
         <v>2590000</v>
@@ -1214,7 +1214,7 @@
         <v>58.669998</v>
       </c>
       <c r="F31" t="n">
-        <v>57.507618</v>
+        <v>57.507626</v>
       </c>
       <c r="G31" t="n">
         <v>6311300</v>
@@ -1239,7 +1239,7 @@
         <v>58.59</v>
       </c>
       <c r="F32" t="n">
-        <v>57.429214</v>
+        <v>57.429211</v>
       </c>
       <c r="G32" t="n">
         <v>4077900</v>
@@ -1289,7 +1289,7 @@
         <v>58.630001</v>
       </c>
       <c r="F34" t="n">
-        <v>57.468418</v>
+        <v>57.468422</v>
       </c>
       <c r="G34" t="n">
         <v>2906100</v>
@@ -1314,7 +1314,7 @@
         <v>58.200001</v>
       </c>
       <c r="F35" t="n">
-        <v>57.04694</v>
+        <v>57.046936</v>
       </c>
       <c r="G35" t="n">
         <v>3648300</v>
@@ -1339,7 +1339,7 @@
         <v>58.27</v>
       </c>
       <c r="F36" t="n">
-        <v>57.115547</v>
+        <v>57.115551</v>
       </c>
       <c r="G36" t="n">
         <v>3129100</v>
@@ -1364,7 +1364,7 @@
         <v>58.400002</v>
       </c>
       <c r="F37" t="n">
-        <v>57.24297</v>
+        <v>57.242973</v>
       </c>
       <c r="G37" t="n">
         <v>2451200</v>
@@ -1414,7 +1414,7 @@
         <v>58.25</v>
       </c>
       <c r="F39" t="n">
-        <v>57.095943</v>
+        <v>57.095947</v>
       </c>
       <c r="G39" t="n">
         <v>3802200</v>
@@ -1439,7 +1439,7 @@
         <v>58.290001</v>
       </c>
       <c r="F40" t="n">
-        <v>57.135155</v>
+        <v>57.135151</v>
       </c>
       <c r="G40" t="n">
         <v>1913400</v>
@@ -1514,7 +1514,7 @@
         <v>57.98</v>
       </c>
       <c r="F43" t="n">
-        <v>56.943638</v>
+        <v>56.943642</v>
       </c>
       <c r="G43" t="n">
         <v>2019300</v>
@@ -1539,7 +1539,7 @@
         <v>57.91</v>
       </c>
       <c r="F44" t="n">
-        <v>56.874889</v>
+        <v>56.874893</v>
       </c>
       <c r="G44" t="n">
         <v>1766200</v>
@@ -1589,7 +1589,7 @@
         <v>57.779999</v>
       </c>
       <c r="F46" t="n">
-        <v>56.747211</v>
+        <v>56.747215</v>
       </c>
       <c r="G46" t="n">
         <v>2439500</v>
@@ -1614,7 +1614,7 @@
         <v>58.139999</v>
       </c>
       <c r="F47" t="n">
-        <v>57.100784</v>
+        <v>57.100777</v>
       </c>
       <c r="G47" t="n">
         <v>1569400</v>
@@ -1639,7 +1639,7 @@
         <v>58.889999</v>
       </c>
       <c r="F48" t="n">
-        <v>57.837368</v>
+        <v>57.837376</v>
       </c>
       <c r="G48" t="n">
         <v>2527000</v>
@@ -1664,7 +1664,7 @@
         <v>59.599998</v>
       </c>
       <c r="F49" t="n">
-        <v>58.534683</v>
+        <v>58.534676</v>
       </c>
       <c r="G49" t="n">
         <v>5723900</v>
@@ -1739,7 +1739,7 @@
         <v>59.459999</v>
       </c>
       <c r="F52" t="n">
-        <v>58.397182</v>
+        <v>58.397186</v>
       </c>
       <c r="G52" t="n">
         <v>6014900</v>
@@ -1764,7 +1764,7 @@
         <v>60.040001</v>
       </c>
       <c r="F53" t="n">
-        <v>58.966816</v>
+        <v>58.966824</v>
       </c>
       <c r="G53" t="n">
         <v>2511100</v>
@@ -1814,7 +1814,7 @@
         <v>59.41</v>
       </c>
       <c r="F55" t="n">
-        <v>58.348083</v>
+        <v>58.348076</v>
       </c>
       <c r="G55" t="n">
         <v>2556600</v>
@@ -1864,7 +1864,7 @@
         <v>60.389999</v>
       </c>
       <c r="F57" t="n">
-        <v>59.310562</v>
+        <v>59.310558</v>
       </c>
       <c r="G57" t="n">
         <v>3073900</v>
@@ -1914,7 +1914,7 @@
         <v>59.810001</v>
       </c>
       <c r="F59" t="n">
-        <v>58.740929</v>
+        <v>58.740932</v>
       </c>
       <c r="G59" t="n">
         <v>1804900</v>
@@ -1989,7 +1989,7 @@
         <v>59.709999</v>
       </c>
       <c r="F62" t="n">
-        <v>58.642712</v>
+        <v>58.642715</v>
       </c>
       <c r="G62" t="n">
         <v>1227200</v>
@@ -2014,7 +2014,7 @@
         <v>59.959999</v>
       </c>
       <c r="F63" t="n">
-        <v>58.888248</v>
+        <v>58.888245</v>
       </c>
       <c r="G63" t="n">
         <v>1964300</v>
@@ -2039,7 +2039,7 @@
         <v>60.049999</v>
       </c>
       <c r="F64" t="n">
-        <v>59.099846</v>
+        <v>59.099842</v>
       </c>
       <c r="G64" t="n">
         <v>1904500</v>
@@ -2089,7 +2089,7 @@
         <v>60.52</v>
       </c>
       <c r="F66" t="n">
-        <v>59.562408</v>
+        <v>59.562416</v>
       </c>
       <c r="G66" t="n">
         <v>1736500</v>
@@ -2114,7 +2114,7 @@
         <v>60.529999</v>
       </c>
       <c r="F67" t="n">
-        <v>59.572254</v>
+        <v>59.57225</v>
       </c>
       <c r="G67" t="n">
         <v>1474100</v>
@@ -2164,7 +2164,7 @@
         <v>60.049999</v>
       </c>
       <c r="F69" t="n">
-        <v>59.099846</v>
+        <v>59.099842</v>
       </c>
       <c r="G69" t="n">
         <v>1461300</v>
@@ -2189,7 +2189,7 @@
         <v>60.23</v>
       </c>
       <c r="F70" t="n">
-        <v>59.277</v>
+        <v>59.276997</v>
       </c>
       <c r="G70" t="n">
         <v>5763400</v>
@@ -2214,7 +2214,7 @@
         <v>60.130001</v>
       </c>
       <c r="F71" t="n">
-        <v>59.178585</v>
+        <v>59.178581</v>
       </c>
       <c r="G71" t="n">
         <v>1616400</v>
@@ -2239,7 +2239,7 @@
         <v>59.889999</v>
       </c>
       <c r="F72" t="n">
-        <v>58.942379</v>
+        <v>58.942375</v>
       </c>
       <c r="G72" t="n">
         <v>2046000</v>
@@ -2264,7 +2264,7 @@
         <v>59.599998</v>
       </c>
       <c r="F73" t="n">
-        <v>58.656967</v>
+        <v>58.656963</v>
       </c>
       <c r="G73" t="n">
         <v>871200</v>
@@ -2289,7 +2289,7 @@
         <v>59.66</v>
       </c>
       <c r="F74" t="n">
-        <v>58.716019</v>
+        <v>58.716015</v>
       </c>
       <c r="G74" t="n">
         <v>912600</v>
@@ -2314,7 +2314,7 @@
         <v>59.560001</v>
       </c>
       <c r="F75" t="n">
-        <v>58.617599</v>
+        <v>58.617603</v>
       </c>
       <c r="G75" t="n">
         <v>940900</v>
@@ -2339,7 +2339,7 @@
         <v>59.82</v>
       </c>
       <c r="F76" t="n">
-        <v>58.873482</v>
+        <v>58.873489</v>
       </c>
       <c r="G76" t="n">
         <v>1291600</v>
@@ -2364,7 +2364,7 @@
         <v>59.73</v>
       </c>
       <c r="F77" t="n">
-        <v>58.784904</v>
+        <v>58.784912</v>
       </c>
       <c r="G77" t="n">
         <v>861400</v>
@@ -2389,7 +2389,7 @@
         <v>59.939999</v>
       </c>
       <c r="F78" t="n">
-        <v>58.991585</v>
+        <v>58.991581</v>
       </c>
       <c r="G78" t="n">
         <v>1001700</v>
@@ -2414,7 +2414,7 @@
         <v>60.439999</v>
       </c>
       <c r="F79" t="n">
-        <v>59.483673</v>
+        <v>59.483669</v>
       </c>
       <c r="G79" t="n">
         <v>1242700</v>
@@ -2464,7 +2464,7 @@
         <v>59.939999</v>
       </c>
       <c r="F81" t="n">
-        <v>58.991585</v>
+        <v>58.991581</v>
       </c>
       <c r="G81" t="n">
         <v>2827300</v>
@@ -2539,7 +2539,7 @@
         <v>60.25</v>
       </c>
       <c r="F84" t="n">
-        <v>59.416954</v>
+        <v>59.416958</v>
       </c>
       <c r="G84" t="n">
         <v>1737600</v>
@@ -2564,7 +2564,7 @@
         <v>60.59</v>
       </c>
       <c r="F85" t="n">
-        <v>59.752251</v>
+        <v>59.752254</v>
       </c>
       <c r="G85" t="n">
         <v>1389700</v>
@@ -2589,7 +2589,7 @@
         <v>60.650002</v>
       </c>
       <c r="F86" t="n">
-        <v>59.811428</v>
+        <v>59.811432</v>
       </c>
       <c r="G86" t="n">
         <v>2793100</v>
@@ -2639,7 +2639,7 @@
         <v>60.110001</v>
       </c>
       <c r="F88" t="n">
-        <v>59.278893</v>
+        <v>59.278889</v>
       </c>
       <c r="G88" t="n">
         <v>1617200</v>
@@ -2689,7 +2689,7 @@
         <v>60.43</v>
       </c>
       <c r="F90" t="n">
-        <v>59.594467</v>
+        <v>59.594463</v>
       </c>
       <c r="G90" t="n">
         <v>2377200</v>
@@ -2714,7 +2714,7 @@
         <v>60.540001</v>
       </c>
       <c r="F91" t="n">
-        <v>59.70295</v>
+        <v>59.702946</v>
       </c>
       <c r="G91" t="n">
         <v>1439700</v>
@@ -2739,7 +2739,7 @@
         <v>60.27</v>
       </c>
       <c r="F92" t="n">
-        <v>59.43668</v>
+        <v>59.436676</v>
       </c>
       <c r="G92" t="n">
         <v>1975300</v>
@@ -2839,7 +2839,7 @@
         <v>59.610001</v>
       </c>
       <c r="F96" t="n">
-        <v>58.785809</v>
+        <v>58.785805</v>
       </c>
       <c r="G96" t="n">
         <v>2963000</v>
@@ -2864,7 +2864,7 @@
         <v>59.419998</v>
       </c>
       <c r="F97" t="n">
-        <v>58.598431</v>
+        <v>58.598427</v>
       </c>
       <c r="G97" t="n">
         <v>2283200</v>
@@ -2889,7 +2889,7 @@
         <v>59.380001</v>
       </c>
       <c r="F98" t="n">
-        <v>58.558987</v>
+        <v>58.558979</v>
       </c>
       <c r="G98" t="n">
         <v>3127700</v>
@@ -2914,7 +2914,7 @@
         <v>59.439999</v>
       </c>
       <c r="F99" t="n">
-        <v>58.618153</v>
+        <v>58.618149</v>
       </c>
       <c r="G99" t="n">
         <v>1391900</v>
@@ -2939,7 +2939,7 @@
         <v>59.32</v>
       </c>
       <c r="F100" t="n">
-        <v>58.499813</v>
+        <v>58.499817</v>
       </c>
       <c r="G100" t="n">
         <v>1526500</v>
@@ -2964,7 +2964,7 @@
         <v>58.990002</v>
       </c>
       <c r="F101" t="n">
-        <v>58.174374</v>
+        <v>58.174381</v>
       </c>
       <c r="G101" t="n">
         <v>2161900</v>
@@ -3014,7 +3014,7 @@
         <v>59.349998</v>
       </c>
       <c r="F103" t="n">
-        <v>58.529404</v>
+        <v>58.5294</v>
       </c>
       <c r="G103" t="n">
         <v>1224300</v>
@@ -3114,7 +3114,7 @@
         <v>59.150002</v>
       </c>
       <c r="F107" t="n">
-        <v>58.458889</v>
+        <v>58.458885</v>
       </c>
       <c r="G107" t="n">
         <v>2423400</v>
@@ -3164,7 +3164,7 @@
         <v>58.880001</v>
       </c>
       <c r="F109" t="n">
-        <v>58.192039</v>
+        <v>58.192036</v>
       </c>
       <c r="G109" t="n">
         <v>1950200</v>
@@ -3189,7 +3189,7 @@
         <v>59.150002</v>
       </c>
       <c r="F110" t="n">
-        <v>58.458889</v>
+        <v>58.458885</v>
       </c>
       <c r="G110" t="n">
         <v>1090300</v>
@@ -3289,7 +3289,7 @@
         <v>58.740002</v>
       </c>
       <c r="F114" t="n">
-        <v>58.05368</v>
+        <v>58.053677</v>
       </c>
       <c r="G114" t="n">
         <v>5187500</v>
@@ -3314,7 +3314,7 @@
         <v>59.099998</v>
       </c>
       <c r="F115" t="n">
-        <v>58.409466</v>
+        <v>58.40947</v>
       </c>
       <c r="G115" t="n">
         <v>2215100</v>
@@ -3339,7 +3339,7 @@
         <v>58.880001</v>
       </c>
       <c r="F116" t="n">
-        <v>58.192039</v>
+        <v>58.192036</v>
       </c>
       <c r="G116" t="n">
         <v>4494200</v>
@@ -3364,7 +3364,7 @@
         <v>58.98</v>
       </c>
       <c r="F117" t="n">
-        <v>58.290867</v>
+        <v>58.290874</v>
       </c>
       <c r="G117" t="n">
         <v>2541100</v>
@@ -3389,7 +3389,7 @@
         <v>59.009998</v>
       </c>
       <c r="F118" t="n">
-        <v>58.320518</v>
+        <v>58.320522</v>
       </c>
       <c r="G118" t="n">
         <v>2199300</v>
@@ -3489,7 +3489,7 @@
         <v>58.860001</v>
       </c>
       <c r="F122" t="n">
-        <v>58.172276</v>
+        <v>58.172279</v>
       </c>
       <c r="G122" t="n">
         <v>1470500</v>
@@ -3614,7 +3614,7 @@
         <v>58.189999</v>
       </c>
       <c r="F127" t="n">
-        <v>57.635864</v>
+        <v>57.635868</v>
       </c>
       <c r="G127" t="n">
         <v>1926800</v>
@@ -3639,7 +3639,7 @@
         <v>57.869999</v>
       </c>
       <c r="F128" t="n">
-        <v>57.318913</v>
+        <v>57.318909</v>
       </c>
       <c r="G128" t="n">
         <v>3567600</v>
@@ -3664,7 +3664,7 @@
         <v>57.869999</v>
       </c>
       <c r="F129" t="n">
-        <v>57.318913</v>
+        <v>57.318909</v>
       </c>
       <c r="G129" t="n">
         <v>1276800</v>
@@ -3689,7 +3689,7 @@
         <v>58.139999</v>
       </c>
       <c r="F130" t="n">
-        <v>57.586349</v>
+        <v>57.586342</v>
       </c>
       <c r="G130" t="n">
         <v>1465200</v>
@@ -3714,7 +3714,7 @@
         <v>58.18</v>
       </c>
       <c r="F131" t="n">
-        <v>57.625961</v>
+        <v>57.625965</v>
       </c>
       <c r="G131" t="n">
         <v>1871200</v>
@@ -3764,7 +3764,7 @@
         <v>59.049999</v>
       </c>
       <c r="F133" t="n">
-        <v>58.487679</v>
+        <v>58.487675</v>
       </c>
       <c r="G133" t="n">
         <v>2043900</v>
@@ -3789,7 +3789,7 @@
         <v>58.779999</v>
       </c>
       <c r="F134" t="n">
-        <v>58.220245</v>
+        <v>58.220249</v>
       </c>
       <c r="G134" t="n">
         <v>1014000</v>
@@ -3814,7 +3814,7 @@
         <v>58.860001</v>
       </c>
       <c r="F135" t="n">
-        <v>58.299484</v>
+        <v>58.299492</v>
       </c>
       <c r="G135" t="n">
         <v>893800</v>
@@ -3889,7 +3889,7 @@
         <v>58.689999</v>
       </c>
       <c r="F138" t="n">
-        <v>58.1311</v>
+        <v>58.131107</v>
       </c>
       <c r="G138" t="n">
         <v>20730600</v>
@@ -3914,7 +3914,7 @@
         <v>58.700001</v>
       </c>
       <c r="F139" t="n">
-        <v>58.14101</v>
+        <v>58.141014</v>
       </c>
       <c r="G139" t="n">
         <v>2161800</v>
@@ -4014,7 +4014,7 @@
         <v>58.259998</v>
       </c>
       <c r="F143" t="n">
-        <v>57.7052</v>
+        <v>57.705196</v>
       </c>
       <c r="G143" t="n">
         <v>1907000</v>
@@ -4164,7 +4164,7 @@
         <v>58.34</v>
       </c>
       <c r="F149" t="n">
-        <v>57.911194</v>
+        <v>57.911198</v>
       </c>
       <c r="G149" t="n">
         <v>3147800</v>
@@ -4189,7 +4189,7 @@
         <v>58.27</v>
       </c>
       <c r="F150" t="n">
-        <v>57.841713</v>
+        <v>57.841709</v>
       </c>
       <c r="G150" t="n">
         <v>1124500</v>
@@ -4439,7 +4439,7 @@
         <v>57.529999</v>
       </c>
       <c r="F160" t="n">
-        <v>57.107147</v>
+        <v>57.107151</v>
       </c>
       <c r="G160" t="n">
         <v>5027300</v>
@@ -4464,7 +4464,7 @@
         <v>57.490002</v>
       </c>
       <c r="F161" t="n">
-        <v>57.067444</v>
+        <v>57.067448</v>
       </c>
       <c r="G161" t="n">
         <v>2433300</v>
@@ -4514,7 +4514,7 @@
         <v>57.77</v>
       </c>
       <c r="F163" t="n">
-        <v>57.345383</v>
+        <v>57.345387</v>
       </c>
       <c r="G163" t="n">
         <v>3180900</v>
@@ -4539,7 +4539,7 @@
         <v>57.700001</v>
       </c>
       <c r="F164" t="n">
-        <v>57.275902</v>
+        <v>57.275898</v>
       </c>
       <c r="G164" t="n">
         <v>1632400</v>
@@ -4639,7 +4639,7 @@
         <v>58.259998</v>
       </c>
       <c r="F168" t="n">
-        <v>57.831783</v>
+        <v>57.831779</v>
       </c>
       <c r="G168" t="n">
         <v>3150500</v>
@@ -5842,7 +5842,32 @@
         <v>57.369999</v>
       </c>
       <c r="G216" t="n">
-        <v>2274015</v>
+        <v>2274700</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2023-11-09</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>57.330002</v>
+      </c>
+      <c r="C217" t="n">
+        <v>57.330002</v>
+      </c>
+      <c r="D217" t="n">
+        <v>56.990002</v>
+      </c>
+      <c r="E217" t="n">
+        <v>57</v>
+      </c>
+      <c r="F217" t="n">
+        <v>57</v>
+      </c>
+      <c r="G217" t="n">
+        <v>3284919</v>
       </c>
     </row>
   </sheetData>
